--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -174,18 +174,21 @@
   <si>
     <t>SSDP-ACO</t>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,9 +197,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,6 +213,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,8 +242,16 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,17 +264,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,16 +309,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +333,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -299,46 +347,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,13 +369,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +405,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,61 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,37 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,19 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,12 +525,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -553,16 +551,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -583,15 +603,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -607,16 +618,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -655,152 +666,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +822,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -871,14 +888,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:AA101" totalsRowShown="0">
-  <autoFilter ref="A1:AA101">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="equal" val="SSDP"/>
-        <customFilter operator="equal" val="SSDP-ACO"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AA101"/>
   <tableColumns count="27">
     <tableColumn id="1" name="Algoritmo"/>
     <tableColumn id="2" name="Base"/>
@@ -1171,14 +1181,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA101"/>
+  <dimension ref="A1:AA104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P76" sqref="P76"/>
+      <selection pane="bottomRight" activeCell="Y104" sqref="Y104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1244,7 +1254,7 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1256,19 +1266,19 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
@@ -1281,7 +1291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:27">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1364,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:27">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1447,7 +1457,7 @@
         <v>24.66666667</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:27">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1530,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:27">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>69.33333333</v>
       </c>
     </row>
-    <row r="6" hidden="1" spans="1:27">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:27">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:27">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:27">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:27">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2028,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:27">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -2111,7 +2121,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:27">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2194,7 +2204,7 @@
         <v>6.333333333</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:27">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:27">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2360,7 +2370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:27">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2443,7 +2453,7 @@
         <v>330.6666667</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:27">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2526,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:27">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:27">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -2692,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:27">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:27">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2858,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:27">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:27">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -3024,7 +3034,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:27">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:27">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -3190,7 +3200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:27">
+    <row r="25" spans="1:27">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3273,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:27">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -3356,7 +3366,7 @@
         <v>611.95</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:27">
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>3.857142857</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:27">
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:27">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -3605,7 +3615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:27">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3688,7 +3698,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:27">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>49</v>
       </c>
@@ -3771,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:27">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -3854,7 +3864,7 @@
         <v>12.33333333</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:27">
+    <row r="33" spans="1:27">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -3937,7 +3947,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:27">
+    <row r="34" spans="1:27">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -4020,7 +4030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:27">
+    <row r="35" spans="1:27">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4103,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:27">
+    <row r="36" spans="1:27">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:27">
+    <row r="37" spans="1:27">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4269,7 +4279,7 @@
         <v>10.57142857</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:27">
+    <row r="38" spans="1:27">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -4352,7 +4362,7 @@
         <v>147.25</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:27">
+    <row r="39" spans="1:27">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -4435,7 +4445,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:27">
+    <row r="40" spans="1:27">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>0.465116279</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:27">
+    <row r="41" spans="1:27">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:27">
+    <row r="42" spans="1:27">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:27">
+    <row r="43" spans="1:27">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -4767,7 +4777,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:27">
+    <row r="44" spans="1:27">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4850,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:27">
+    <row r="45" spans="1:27">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>75.66666667</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:27">
+    <row r="46" spans="1:27">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -5016,7 +5026,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:27">
+    <row r="47" spans="1:27">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:27">
+    <row r="48" spans="1:27">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5182,7 +5192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:27">
+    <row r="49" spans="1:27">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5265,7 +5275,7 @@
         <v>1.777777778</v>
       </c>
     </row>
-    <row r="50" hidden="1" spans="1:27">
+    <row r="50" spans="1:27">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:27">
+    <row r="51" spans="1:27">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5431,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:27">
+    <row r="52" spans="1:27">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -5514,7 +5524,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:27">
+    <row r="53" spans="1:27">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -5597,7 +5607,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:27">
+    <row r="54" spans="1:27">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -5680,7 +5690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:27">
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -5763,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:27">
+    <row r="56" spans="1:27">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -5846,7 +5856,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:27">
+    <row r="57" spans="1:27">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -5929,7 +5939,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:27">
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -6012,7 +6022,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="59" hidden="1" spans="1:27">
+    <row r="59" spans="1:27">
       <c r="A59" t="s">
         <v>50</v>
       </c>
@@ -6095,7 +6105,7 @@
         <v>31.90909091</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:27">
+    <row r="60" spans="1:27">
       <c r="A60" t="s">
         <v>50</v>
       </c>
@@ -6178,7 +6188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:27">
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -7921,7 +7931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:27">
       <c r="A82" t="s">
         <v>52</v>
       </c>
@@ -7946,8 +7956,62 @@
       <c r="H82">
         <v>154</v>
       </c>
-    </row>
-    <row r="83" spans="1:15">
+      <c r="I82">
+        <v>2.93</v>
+      </c>
+      <c r="K82" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0.135053645547811</v>
+      </c>
+      <c r="M82">
+        <v>1.71988398796325</v>
+      </c>
+      <c r="N82">
+        <v>96.1597892678156</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>2.52064884662362</v>
+      </c>
+      <c r="Q82">
+        <v>0.716080141181355</v>
+      </c>
+      <c r="R82" s="5">
+        <v>5</v>
+      </c>
+      <c r="S82">
+        <v>10.6</v>
+      </c>
+      <c r="T82">
+        <v>0.35575221238938</v>
+      </c>
+      <c r="U82">
+        <v>0.635738868396224</v>
+      </c>
+      <c r="V82">
+        <v>0.224778761061946</v>
+      </c>
+      <c r="W82">
+        <v>0.891228070175438</v>
+      </c>
+      <c r="X82">
+        <v>0.175147928994082</v>
+      </c>
+      <c r="Y82">
+        <v>0.947368</v>
+      </c>
+      <c r="Z82">
+        <v>50.8</v>
+      </c>
+      <c r="AA82">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" t="s">
         <v>52</v>
       </c>
@@ -7972,15 +8036,62 @@
       <c r="H83">
         <v>41</v>
       </c>
-      <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83"/>
-      <c r="L83"/>
-      <c r="M83"/>
-      <c r="N83"/>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="1:15">
+      <c r="I83">
+        <v>0.279</v>
+      </c>
+      <c r="K83" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0.0551640667025282</v>
+      </c>
+      <c r="M83">
+        <v>3.73745647969052</v>
+      </c>
+      <c r="N83">
+        <v>21.5108875857421</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0.000190541740924143</v>
+      </c>
+      <c r="P83">
+        <v>1.12685083971715</v>
+      </c>
+      <c r="Q83">
+        <v>0.264103014340064</v>
+      </c>
+      <c r="R83" s="5">
+        <v>5</v>
+      </c>
+      <c r="S83">
+        <v>1.6</v>
+      </c>
+      <c r="T83">
+        <v>0.653846153846153</v>
+      </c>
+      <c r="U83">
+        <v>0.791947618122892</v>
+      </c>
+      <c r="V83">
+        <v>0.514685314685314</v>
+      </c>
+      <c r="W83">
+        <v>0.732338308457711</v>
+      </c>
+      <c r="X83">
+        <v>0.468235294117647</v>
+      </c>
+      <c r="Y83">
+        <v>0.905473</v>
+      </c>
+      <c r="Z83">
+        <v>147.2</v>
+      </c>
+      <c r="AA83">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" t="s">
         <v>52</v>
       </c>
@@ -8005,15 +8116,62 @@
       <c r="H84">
         <v>191</v>
       </c>
-      <c r="I84"/>
-      <c r="J84"/>
-      <c r="K84"/>
-      <c r="L84"/>
-      <c r="M84"/>
-      <c r="N84"/>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="1:15">
+      <c r="I84">
+        <v>0.182</v>
+      </c>
+      <c r="K84" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.115646258503401</v>
+      </c>
+      <c r="M84">
+        <v>3.09550361918783</v>
+      </c>
+      <c r="N84">
+        <v>26.7475223075304</v>
+      </c>
+      <c r="O84" s="3">
+        <v>1.25875485914583e-6</v>
+      </c>
+      <c r="P84">
+        <v>1.74628444089743</v>
+      </c>
+      <c r="Q84">
+        <v>0.475037257824143</v>
+      </c>
+      <c r="R84" s="5">
+        <v>5</v>
+      </c>
+      <c r="S84">
+        <v>1.8</v>
+      </c>
+      <c r="T84">
+        <v>0.428571428571428</v>
+      </c>
+      <c r="U84">
+        <v>0.731776337137971</v>
+      </c>
+      <c r="V84">
+        <v>0.295238095238095</v>
+      </c>
+      <c r="W84">
+        <v>0.704545454545454</v>
+      </c>
+      <c r="X84">
+        <v>0.229508196721311</v>
+      </c>
+      <c r="Y84">
+        <v>0.977273</v>
+      </c>
+      <c r="Z84">
+        <v>31</v>
+      </c>
+      <c r="AA84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" t="s">
         <v>52</v>
       </c>
@@ -8038,15 +8196,62 @@
       <c r="H85">
         <v>21</v>
       </c>
-      <c r="I85"/>
-      <c r="J85"/>
-      <c r="K85"/>
-      <c r="L85"/>
-      <c r="M85"/>
-      <c r="N85"/>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85">
+        <v>0.235</v>
+      </c>
+      <c r="K85" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0.0586805555555555</v>
+      </c>
+      <c r="M85">
+        <v>233.081264157048</v>
+      </c>
+      <c r="N85">
+        <v>172.800367593094</v>
+      </c>
+      <c r="O85" s="3">
+        <v>4.03132462967192e-8</v>
+      </c>
+      <c r="P85">
+        <v>1.27041322314049</v>
+      </c>
+      <c r="Q85">
+        <v>0.279554548645457</v>
+      </c>
+      <c r="R85" s="5">
+        <v>5</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <v>0.3</v>
+      </c>
+      <c r="U85">
+        <v>0.889583333333333</v>
+      </c>
+      <c r="V85">
+        <v>0.26875</v>
+      </c>
+      <c r="W85">
+        <v>0.383801652892561</v>
+      </c>
+      <c r="X85">
+        <v>0.104247104247104</v>
+      </c>
+      <c r="Y85">
+        <v>0.990083</v>
+      </c>
+      <c r="Z85">
+        <v>464.4</v>
+      </c>
+      <c r="AA85">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" t="s">
         <v>52</v>
       </c>
@@ -8071,8 +8276,62 @@
       <c r="H86">
         <v>73</v>
       </c>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="I86">
+        <v>8.477</v>
+      </c>
+      <c r="K86" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.12093223929787</v>
+      </c>
+      <c r="M86">
+        <v>3.08788833446018</v>
+      </c>
+      <c r="N86">
+        <v>786.69511505788</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>1.41544224400049</v>
+      </c>
+      <c r="Q86">
+        <v>0.484685762133406</v>
+      </c>
+      <c r="R86" s="5">
+        <v>5</v>
+      </c>
+      <c r="S86">
+        <v>4.2</v>
+      </c>
+      <c r="T86">
+        <v>0.574655819774718</v>
+      </c>
+      <c r="U86">
+        <v>0.739165552326915</v>
+      </c>
+      <c r="V86">
+        <v>0.421026282853566</v>
+      </c>
+      <c r="W86">
+        <v>0.806231276213301</v>
+      </c>
+      <c r="X86">
+        <v>0.321545514079895</v>
+      </c>
+      <c r="Y86">
+        <v>0.850809</v>
+      </c>
+      <c r="Z86">
+        <v>1345.6</v>
+      </c>
+      <c r="AA86">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -8097,8 +8356,62 @@
       <c r="H87">
         <v>157</v>
       </c>
-    </row>
-    <row r="88" spans="1:15">
+      <c r="I87">
+        <v>0.575</v>
+      </c>
+      <c r="K87" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.07109375</v>
+      </c>
+      <c r="M87">
+        <v>1.58643356643356</v>
+      </c>
+      <c r="N87">
+        <v>3.83962188946012</v>
+      </c>
+      <c r="O87">
+        <v>0.0666721754025118</v>
+      </c>
+      <c r="P87">
+        <v>1.64102564102564</v>
+      </c>
+      <c r="Q87">
+        <v>0.294736842105263</v>
+      </c>
+      <c r="R87" s="5">
+        <v>5</v>
+      </c>
+      <c r="S87">
+        <v>2.2</v>
+      </c>
+      <c r="T87">
+        <v>0.425</v>
+      </c>
+      <c r="U87">
+        <v>0.666666666666666</v>
+      </c>
+      <c r="V87">
+        <v>0.24375</v>
+      </c>
+      <c r="W87">
+        <v>0.6</v>
+      </c>
+      <c r="X87">
+        <v>0.305263157894736</v>
+      </c>
+      <c r="Y87">
+        <v>0.923077</v>
+      </c>
+      <c r="Z87">
+        <v>7.8</v>
+      </c>
+      <c r="AA87">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -8123,15 +8436,62 @@
       <c r="H88">
         <v>334</v>
       </c>
-      <c r="I88"/>
-      <c r="J88"/>
-      <c r="K88"/>
-      <c r="L88"/>
-      <c r="M88"/>
-      <c r="N88"/>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="I88">
+        <v>0.908</v>
+      </c>
+      <c r="K88" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0.0367924528301886</v>
+      </c>
+      <c r="M88">
+        <v>2.01645021645021</v>
+      </c>
+      <c r="N88">
+        <v>3.80187791194415</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0.0580098923341451</v>
+      </c>
+      <c r="P88">
+        <v>1.39963510308337</v>
+      </c>
+      <c r="Q88">
+        <v>0.147169811320754</v>
+      </c>
+      <c r="R88" s="5">
+        <v>5</v>
+      </c>
+      <c r="S88">
+        <v>1.2</v>
+      </c>
+      <c r="T88">
+        <v>0.20188679245283</v>
+      </c>
+      <c r="U88">
+        <v>0.699817551541689</v>
+      </c>
+      <c r="V88">
+        <v>0.137735849056603</v>
+      </c>
+      <c r="W88">
+        <v>0.275471698113207</v>
+      </c>
+      <c r="X88">
+        <v>0.128301886792452</v>
+      </c>
+      <c r="Y88">
+        <v>0.754717</v>
+      </c>
+      <c r="Z88">
+        <v>14.6</v>
+      </c>
+      <c r="AA88">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -8156,8 +8516,62 @@
       <c r="H89">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
+      <c r="I89">
+        <v>0.055</v>
+      </c>
+      <c r="K89" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0.0540322580645161</v>
+      </c>
+      <c r="M89">
+        <v>3.53</v>
+      </c>
+      <c r="N89">
+        <v>9.65479077917153</v>
+      </c>
+      <c r="O89">
+        <v>0.00407841263653168</v>
+      </c>
+      <c r="P89">
+        <v>1.58592707258341</v>
+      </c>
+      <c r="Q89">
+        <v>0.216129032258064</v>
+      </c>
+      <c r="R89" s="5">
+        <v>5</v>
+      </c>
+      <c r="S89">
+        <v>1.6</v>
+      </c>
+      <c r="T89">
+        <v>0.211290322580645</v>
+      </c>
+      <c r="U89">
+        <v>0.792963536291709</v>
+      </c>
+      <c r="V89">
+        <v>0.159677419354838</v>
+      </c>
+      <c r="W89">
+        <v>0.319354838709677</v>
+      </c>
+      <c r="X89">
+        <v>0.103225806451612</v>
+      </c>
+      <c r="Y89">
+        <v>0.790323</v>
+      </c>
+      <c r="Z89">
+        <v>19.8</v>
+      </c>
+      <c r="AA89">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -8182,8 +8596,62 @@
       <c r="H90">
         <v>116</v>
       </c>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90">
+        <v>14.845</v>
+      </c>
+      <c r="K90" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L90" s="5">
+        <v>0.154578237224545</v>
+      </c>
+      <c r="M90">
+        <v>513.387641484968</v>
+      </c>
+      <c r="N90">
+        <v>3358.66181475324</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>1.7564983673035</v>
+      </c>
+      <c r="Q90">
+        <v>0.619112775121661</v>
+      </c>
+      <c r="R90" s="5">
+        <v>5</v>
+      </c>
+      <c r="S90">
+        <v>1.6</v>
+      </c>
+      <c r="T90">
+        <v>0.406893156080748</v>
+      </c>
+      <c r="U90">
+        <v>0.909815993305408</v>
+      </c>
+      <c r="V90">
+        <v>0.365337272279665</v>
+      </c>
+      <c r="W90">
+        <v>0.705323193916349</v>
+      </c>
+      <c r="X90">
+        <v>0.0862104187946884</v>
+      </c>
+      <c r="Y90">
+        <v>1</v>
+      </c>
+      <c r="Z90">
+        <v>2968</v>
+      </c>
+      <c r="AA90">
+        <v>337.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -8208,8 +8676,62 @@
       <c r="H91">
         <v>27</v>
       </c>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91">
+        <v>2.289</v>
+      </c>
+      <c r="K91" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L91" s="5">
+        <v>0.0888888888888889</v>
+      </c>
+      <c r="M91">
+        <v>1728</v>
+      </c>
+      <c r="N91">
+        <v>4477.0909090909</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>3</v>
+      </c>
+      <c r="Q91">
+        <v>0.4</v>
+      </c>
+      <c r="R91" s="5">
+        <v>5</v>
+      </c>
+      <c r="S91">
+        <v>1.8</v>
+      </c>
+      <c r="T91">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="U91">
+        <v>1</v>
+      </c>
+      <c r="V91">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="W91">
+        <v>0.4</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1728</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" t="s">
         <v>52</v>
       </c>
@@ -8234,8 +8756,62 @@
       <c r="H92">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="I92">
+        <v>0.07</v>
+      </c>
+      <c r="K92" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L92" s="5">
+        <v>0.0265185185185185</v>
+      </c>
+      <c r="M92">
+        <v>4.685</v>
+      </c>
+      <c r="N92">
+        <v>2.14475847583131</v>
+      </c>
+      <c r="O92">
+        <v>0.17438119113497</v>
+      </c>
+      <c r="P92">
+        <v>1.20747217286789</v>
+      </c>
+      <c r="Q92">
+        <v>0.129086538461538</v>
+      </c>
+      <c r="R92" s="5">
+        <v>5</v>
+      </c>
+      <c r="S92">
+        <v>2.4</v>
+      </c>
+      <c r="T92">
+        <v>0.253333333333333</v>
+      </c>
+      <c r="U92">
+        <v>0.858646878483834</v>
+      </c>
+      <c r="V92">
+        <v>0.206666666666666</v>
+      </c>
+      <c r="W92">
+        <v>0.290625</v>
+      </c>
+      <c r="X92">
+        <v>0.161538461538461</v>
+      </c>
+      <c r="Y92">
+        <v>0.71875</v>
+      </c>
+      <c r="Z92">
+        <v>18.6</v>
+      </c>
+      <c r="AA92">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" t="s">
         <v>52</v>
       </c>
@@ -8260,15 +8836,62 @@
       <c r="H93">
         <v>37</v>
       </c>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93"/>
-      <c r="L93"/>
-      <c r="M93"/>
-      <c r="N93"/>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93">
+        <v>0.405</v>
+      </c>
+      <c r="K93" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L93" s="5">
+        <v>0.0824810086929282</v>
+      </c>
+      <c r="M93">
+        <v>1.86029634322317</v>
+      </c>
+      <c r="N93">
+        <v>75.2350665132542</v>
+      </c>
+      <c r="O93" s="3">
+        <v>2.22044604925031e-17</v>
+      </c>
+      <c r="P93">
+        <v>2.60867803532096</v>
+      </c>
+      <c r="Q93">
+        <v>0.442521008403361</v>
+      </c>
+      <c r="R93" s="5">
+        <v>5</v>
+      </c>
+      <c r="S93">
+        <v>2</v>
+      </c>
+      <c r="T93">
+        <v>0.214749262536873</v>
+      </c>
+      <c r="U93">
+        <v>0.646398097247672</v>
+      </c>
+      <c r="V93">
+        <v>0.135693215339233</v>
+      </c>
+      <c r="W93">
+        <v>0.547619047619047</v>
+      </c>
+      <c r="X93">
+        <v>0.105098039215686</v>
+      </c>
+      <c r="Y93">
+        <v>0.619048</v>
+      </c>
+      <c r="Z93">
+        <v>46</v>
+      </c>
+      <c r="AA93">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -8293,8 +8916,62 @@
       <c r="H94">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:15">
+      <c r="I94">
+        <v>0.015</v>
+      </c>
+      <c r="K94" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L94" s="5">
+        <v>0.064</v>
+      </c>
+      <c r="M94">
+        <v>2.2</v>
+      </c>
+      <c r="N94">
+        <v>1.77197802197802</v>
+      </c>
+      <c r="O94">
+        <v>0.209091631348456</v>
+      </c>
+      <c r="P94">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="Q94">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="R94" s="5">
+        <v>5</v>
+      </c>
+      <c r="S94">
+        <v>1.8</v>
+      </c>
+      <c r="T94">
+        <v>0.226666666666666</v>
+      </c>
+      <c r="U94">
+        <v>0.95</v>
+      </c>
+      <c r="V94">
+        <v>0.2</v>
+      </c>
+      <c r="W94">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="X94">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>3</v>
+      </c>
+      <c r="AA94">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" t="s">
         <v>52</v>
       </c>
@@ -8319,15 +8996,62 @@
       <c r="H95">
         <v>42</v>
       </c>
-      <c r="I95"/>
-      <c r="J95"/>
-      <c r="K95"/>
-      <c r="L95"/>
-      <c r="M95"/>
-      <c r="N95"/>
-      <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95">
+        <v>0.494</v>
+      </c>
+      <c r="K95" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0.175154617039026</v>
+      </c>
+      <c r="M95">
+        <v>270.8</v>
+      </c>
+      <c r="N95">
+        <v>828.271234540067</v>
+      </c>
+      <c r="O95" s="3">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>3.22054380664652</v>
+      </c>
+      <c r="Q95">
+        <v>0.818126888217522</v>
+      </c>
+      <c r="R95" s="5">
+        <v>5</v>
+      </c>
+      <c r="S95">
+        <v>2</v>
+      </c>
+      <c r="T95">
+        <v>0.254033771106941</v>
+      </c>
+      <c r="U95">
+        <v>1</v>
+      </c>
+      <c r="V95">
+        <v>0.254033771106941</v>
+      </c>
+      <c r="W95">
+        <v>0.818126888217522</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+      <c r="Y95">
+        <v>1</v>
+      </c>
+      <c r="Z95">
+        <v>270.8</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" t="s">
         <v>52</v>
       </c>
@@ -8352,8 +9076,62 @@
       <c r="H96">
         <v>99</v>
       </c>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96">
+        <v>1.793</v>
+      </c>
+      <c r="K96" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0.0659539667602022</v>
+      </c>
+      <c r="M96">
+        <v>0.485511625161235</v>
+      </c>
+      <c r="N96">
+        <v>116.252925597322</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>2.38907314210173</v>
+      </c>
+      <c r="Q96">
+        <v>0.565857426616641</v>
+      </c>
+      <c r="R96" s="5">
+        <v>5</v>
+      </c>
+      <c r="S96">
+        <v>3.6</v>
+      </c>
+      <c r="T96">
+        <v>0.392972181551976</v>
+      </c>
+      <c r="U96">
+        <v>0.321807802450014</v>
+      </c>
+      <c r="V96">
+        <v>0.118887262079062</v>
+      </c>
+      <c r="W96">
+        <v>0.882608695652174</v>
+      </c>
+      <c r="X96">
+        <v>0.316751269035532</v>
+      </c>
+      <c r="Y96">
+        <v>1</v>
+      </c>
+      <c r="Z96">
+        <v>81.2</v>
+      </c>
+      <c r="AA96">
+        <v>187.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" t="s">
         <v>52</v>
       </c>
@@ -8378,8 +9156,62 @@
       <c r="H97">
         <v>44</v>
       </c>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97">
+        <v>0.389</v>
+      </c>
+      <c r="K97" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0.0287111441562526</v>
+      </c>
+      <c r="M97">
+        <v>42.1</v>
+      </c>
+      <c r="N97">
+        <v>8.83888155806614</v>
+      </c>
+      <c r="O97">
+        <v>0.00465042630977741</v>
+      </c>
+      <c r="P97">
+        <v>1.07445374393048</v>
+      </c>
+      <c r="Q97">
+        <v>0.389147286821705</v>
+      </c>
+      <c r="R97" s="5">
+        <v>5</v>
+      </c>
+      <c r="S97">
+        <v>1.2</v>
+      </c>
+      <c r="T97">
+        <v>0.424598930481283</v>
+      </c>
+      <c r="U97">
+        <v>0.988267614738203</v>
+      </c>
+      <c r="V97">
+        <v>0.419251336898395</v>
+      </c>
+      <c r="W97">
+        <v>0.455813953488372</v>
+      </c>
+      <c r="X97">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="Y97">
+        <v>0.825581</v>
+      </c>
+      <c r="Z97">
+        <v>78.4</v>
+      </c>
+      <c r="AA97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" t="s">
         <v>52</v>
       </c>
@@ -8404,8 +9236,62 @@
       <c r="H98">
         <v>3465</v>
       </c>
-    </row>
-    <row r="99" spans="1:15">
+      <c r="I98">
+        <v>15.338</v>
+      </c>
+      <c r="K98" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0.0424064228928568</v>
+      </c>
+      <c r="M98">
+        <v>4.11488416274764</v>
+      </c>
+      <c r="N98">
+        <v>177.300929348318</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>1.50864328266629</v>
+      </c>
+      <c r="Q98">
+        <v>0.16986606571735</v>
+      </c>
+      <c r="R98" s="5">
+        <v>5</v>
+      </c>
+      <c r="S98">
+        <v>1</v>
+      </c>
+      <c r="T98">
+        <v>0.16539184952978</v>
+      </c>
+      <c r="U98">
+        <v>0.782697377057278</v>
+      </c>
+      <c r="V98">
+        <v>0.1282131661442</v>
+      </c>
+      <c r="W98">
+        <v>0.247129909365558</v>
+      </c>
+      <c r="X98">
+        <v>0.0772638436482084</v>
+      </c>
+      <c r="Y98">
+        <v>0.812689</v>
+      </c>
+      <c r="Z98">
+        <v>409</v>
+      </c>
+      <c r="AA98">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" t="s">
         <v>52</v>
       </c>
@@ -8430,15 +9316,62 @@
       <c r="H99">
         <v>27</v>
       </c>
-      <c r="I99"/>
-      <c r="J99"/>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99">
+        <v>0.498</v>
+      </c>
+      <c r="K99" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0.0402369236535754</v>
+      </c>
+      <c r="M99">
+        <v>21.7664071190211</v>
+      </c>
+      <c r="N99">
+        <v>45.7415308025899</v>
+      </c>
+      <c r="O99" s="3">
+        <v>1.35285181945832e-8</v>
+      </c>
+      <c r="P99">
+        <v>1.31939388295879</v>
+      </c>
+      <c r="Q99">
+        <v>0.177681973901997</v>
+      </c>
+      <c r="R99" s="5">
+        <v>5</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>0.222129436325678</v>
+      </c>
+      <c r="U99">
+        <v>0.862150908906265</v>
+      </c>
+      <c r="V99">
+        <v>0.185386221294363</v>
+      </c>
+      <c r="W99">
+        <v>0.283706070287539</v>
+      </c>
+      <c r="X99">
+        <v>0.106024096385542</v>
+      </c>
+      <c r="Y99">
+        <v>0.584665</v>
+      </c>
+      <c r="Z99">
+        <v>177.6</v>
+      </c>
+      <c r="AA99">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" t="s">
         <v>52</v>
       </c>
@@ -8463,8 +9396,62 @@
       <c r="H100">
         <v>77</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100">
+        <v>0.095</v>
+      </c>
+      <c r="K100" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="M100">
+        <v>2.8</v>
+      </c>
+      <c r="N100">
+        <v>4.12698412698412</v>
+      </c>
+      <c r="O100">
+        <v>0.0833931220723301</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+      <c r="Q100">
+        <v>0.56</v>
+      </c>
+      <c r="R100" s="5">
+        <v>5</v>
+      </c>
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>0.28</v>
+      </c>
+      <c r="U100">
+        <v>1</v>
+      </c>
+      <c r="V100">
+        <v>0.28</v>
+      </c>
+      <c r="W100">
+        <v>0.56</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="Y100">
+        <v>1</v>
+      </c>
+      <c r="Z100">
+        <v>2.8</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" t="s">
         <v>52</v>
       </c>
@@ -8488,6 +9475,207 @@
       </c>
       <c r="H101">
         <v>32</v>
+      </c>
+      <c r="I101">
+        <v>0.493</v>
+      </c>
+      <c r="K101" s="5">
+        <v>179424673</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0.173495045580657</v>
+      </c>
+      <c r="M101">
+        <v>16.955119825708</v>
+      </c>
+      <c r="N101">
+        <v>232.402473963735</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>1.50029038414346</v>
+      </c>
+      <c r="Q101">
+        <v>0.731888710540395</v>
+      </c>
+      <c r="R101" s="5">
+        <v>5</v>
+      </c>
+      <c r="S101">
+        <v>1.4</v>
+      </c>
+      <c r="T101">
+        <v>0.568275862068965</v>
+      </c>
+      <c r="U101">
+        <v>0.920867890957021</v>
+      </c>
+      <c r="V101">
+        <v>0.522298850574712</v>
+      </c>
+      <c r="W101">
+        <v>0.850936329588014</v>
+      </c>
+      <c r="X101">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="Y101">
+        <v>0.992509</v>
+      </c>
+      <c r="Z101">
+        <v>227.2</v>
+      </c>
+      <c r="AA101">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
+      <c r="A103" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>53</v>
+      </c>
+      <c r="I103">
+        <f t="shared" ref="I103:R103" si="0">AVERAGE(I62:I81)</f>
+        <v>0.1763</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="0"/>
+        <v>0.0945312991</v>
+      </c>
+      <c r="M103" s="5">
+        <f t="shared" si="0"/>
+        <v>69.2267849379</v>
+      </c>
+      <c r="N103" s="5">
+        <f t="shared" si="0"/>
+        <v>510.06593590675</v>
+      </c>
+      <c r="O103" s="5">
+        <f t="shared" si="0"/>
+        <v>0.0605419291795001</v>
+      </c>
+      <c r="P103" s="5">
+        <f t="shared" si="0"/>
+        <v>1.83965927195</v>
+      </c>
+      <c r="Q103" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44551909795</v>
+      </c>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5">
+        <f t="shared" ref="S103:AA103" si="1">AVERAGE(S62:S81)</f>
+        <v>2.25</v>
+      </c>
+      <c r="T103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.34063731995</v>
+      </c>
+      <c r="U103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8190078708</v>
+      </c>
+      <c r="V103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.2741068022</v>
+      </c>
+      <c r="W103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58049347195</v>
+      </c>
+      <c r="X103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.13497437395</v>
+      </c>
+      <c r="Y103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.85928586715</v>
+      </c>
+      <c r="Z103" s="5">
+        <f t="shared" si="1"/>
+        <v>421.59</v>
+      </c>
+      <c r="AA103" s="5">
+        <f t="shared" si="1"/>
+        <v>146.48</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
+      <c r="A104" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I104">
+        <f t="shared" ref="I104:AA104" si="2">AVERAGE(I82:I101)</f>
+        <v>2.51825</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.0864909999954661</v>
+      </c>
+      <c r="M104" s="5">
+        <f t="shared" si="2"/>
+        <v>143.050487046103</v>
+      </c>
+      <c r="N104" s="5">
+        <f t="shared" si="2"/>
+        <v>522.452472959246</v>
+      </c>
+      <c r="O104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.0300234352788135</v>
+      </c>
+      <c r="P104" s="5">
+        <f t="shared" si="2"/>
+        <v>1.79373037811723</v>
+      </c>
+      <c r="Q104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.407372587513867</v>
+      </c>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5">
+        <f t="shared" si="2"/>
+        <v>2.34</v>
+      </c>
+      <c r="T104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.334669025631536</v>
+      </c>
+      <c r="U104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.809415601348155</v>
+      </c>
+      <c r="V104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.260737140898347</v>
+      </c>
+      <c r="W104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.554409686028763</v>
+      </c>
+      <c r="X104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.147037098514895</v>
+      </c>
+      <c r="Y104" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88461825</v>
+      </c>
+      <c r="Z104" s="5">
+        <f t="shared" si="2"/>
+        <v>404.59</v>
+      </c>
+      <c r="AA104" s="5">
+        <f t="shared" si="2"/>
+        <v>68.92</v>
       </c>
     </row>
   </sheetData>

--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
@@ -185,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,7 +205,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,9 +218,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,53 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,6 +279,52 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -327,24 +342,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -357,13 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,19 +393,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +441,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,19 +501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,55 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,25 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,16 +574,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,17 +603,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,202 +661,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -919,6 +916,41 @@
     <tableColumn id="27" name="FP"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A104:AA108" headerRowCount="0" totalsRowShown="0">
+  <tableColumns count="27">
+    <tableColumn id="1" name="Column1"/>
+    <tableColumn id="2" name="Column2"/>
+    <tableColumn id="3" name="Column3"/>
+    <tableColumn id="4" name="Column4"/>
+    <tableColumn id="5" name="Column5"/>
+    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="7" name="Column7"/>
+    <tableColumn id="8" name="Column8"/>
+    <tableColumn id="9" name="Column9"/>
+    <tableColumn id="10" name="Column10"/>
+    <tableColumn id="11" name="Column11"/>
+    <tableColumn id="12" name="Column12"/>
+    <tableColumn id="13" name="Column13"/>
+    <tableColumn id="14" name="Column14"/>
+    <tableColumn id="15" name="Column15"/>
+    <tableColumn id="16" name="Column16"/>
+    <tableColumn id="17" name="Column17"/>
+    <tableColumn id="18" name="Column18"/>
+    <tableColumn id="19" name="Column19"/>
+    <tableColumn id="20" name="Column20"/>
+    <tableColumn id="21" name="Column21"/>
+    <tableColumn id="22" name="Column22"/>
+    <tableColumn id="23" name="Column23"/>
+    <tableColumn id="24" name="Column24"/>
+    <tableColumn id="25" name="Column25"/>
+    <tableColumn id="26" name="Column26"/>
+    <tableColumn id="27" name="Column27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1181,14 +1213,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA104"/>
+  <dimension ref="A1:AA108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q82" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y104" sqref="Y104"/>
+      <selection pane="bottomRight" activeCell="Y114" sqref="Y114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -1233,61 +1265,61 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1583,7 +1615,7 @@
       <c r="N5">
         <v>159.2785475</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>2.77e-5</v>
       </c>
       <c r="P5">
@@ -2413,7 +2445,7 @@
       <c r="N15">
         <v>127.1382514</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.000107</v>
       </c>
       <c r="P15">
@@ -2745,7 +2777,7 @@
       <c r="N19">
         <v>55.39469136</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>7.52e-9</v>
       </c>
       <c r="P19">
@@ -3077,7 +3109,7 @@
       <c r="N23">
         <v>24.9268384</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>9.2e-7</v>
       </c>
       <c r="P23">
@@ -3160,7 +3192,7 @@
       <c r="N24">
         <v>42.9657228</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>5.57e-11</v>
       </c>
       <c r="P24">
@@ -3492,7 +3524,7 @@
       <c r="N28">
         <v>13.16014729</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <v>0.000615</v>
       </c>
       <c r="P28">
@@ -4322,7 +4354,7 @@
       <c r="N38">
         <v>171.5156082</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <v>1.58e-9</v>
       </c>
       <c r="P38">
@@ -4986,7 +5018,7 @@
       <c r="N46">
         <v>52.13738772</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="2">
         <v>5.17e-13</v>
       </c>
       <c r="P46">
@@ -6231,7 +6263,7 @@
       <c r="N61">
         <v>157.4475517</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="2">
         <v>7.81e-14</v>
       </c>
       <c r="P61">
@@ -6397,7 +6429,7 @@
       <c r="N63">
         <v>25.1259588</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="2">
         <v>6.89e-7</v>
       </c>
       <c r="P63">
@@ -6480,7 +6512,7 @@
       <c r="N64">
         <v>37.60663096</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="2">
         <v>4.39e-9</v>
       </c>
       <c r="P64">
@@ -6563,7 +6595,7 @@
       <c r="N65">
         <v>172.8003676</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="2">
         <v>4.03e-8</v>
       </c>
       <c r="P65">
@@ -6812,7 +6844,7 @@
       <c r="N68">
         <v>17.3624707</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="2">
         <v>0.000255</v>
       </c>
       <c r="P68">
@@ -7227,7 +7259,7 @@
       <c r="N73">
         <v>66.77699521</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="2">
         <v>2.42e-15</v>
       </c>
       <c r="P73">
@@ -7393,7 +7425,7 @@
       <c r="N75">
         <v>331.6535568</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="2">
         <v>5.29e-8</v>
       </c>
       <c r="P75">
@@ -7725,7 +7757,7 @@
       <c r="N79">
         <v>41.4577365</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="2">
         <v>1.8e-8</v>
       </c>
       <c r="P79">
@@ -7959,10 +7991,10 @@
       <c r="I82">
         <v>2.93</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82">
         <v>179424673</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82">
         <v>0.135053645547811</v>
       </c>
       <c r="M82">
@@ -7980,7 +8012,7 @@
       <c r="Q82">
         <v>0.716080141181355</v>
       </c>
-      <c r="R82" s="5">
+      <c r="R82">
         <v>5</v>
       </c>
       <c r="S82">
@@ -8039,10 +8071,10 @@
       <c r="I83">
         <v>0.279</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83">
         <v>179424673</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83">
         <v>0.0551640667025282</v>
       </c>
       <c r="M83">
@@ -8051,7 +8083,7 @@
       <c r="N83">
         <v>21.5108875857421</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="2">
         <v>0.000190541740924143</v>
       </c>
       <c r="P83">
@@ -8060,7 +8092,7 @@
       <c r="Q83">
         <v>0.264103014340064</v>
       </c>
-      <c r="R83" s="5">
+      <c r="R83">
         <v>5</v>
       </c>
       <c r="S83">
@@ -8119,10 +8151,10 @@
       <c r="I84">
         <v>0.182</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84">
         <v>179424673</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84">
         <v>0.115646258503401</v>
       </c>
       <c r="M84">
@@ -8131,7 +8163,7 @@
       <c r="N84">
         <v>26.7475223075304</v>
       </c>
-      <c r="O84" s="3">
+      <c r="O84" s="2">
         <v>1.25875485914583e-6</v>
       </c>
       <c r="P84">
@@ -8140,7 +8172,7 @@
       <c r="Q84">
         <v>0.475037257824143</v>
       </c>
-      <c r="R84" s="5">
+      <c r="R84">
         <v>5</v>
       </c>
       <c r="S84">
@@ -8199,10 +8231,10 @@
       <c r="I85">
         <v>0.235</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85">
         <v>179424673</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85">
         <v>0.0586805555555555</v>
       </c>
       <c r="M85">
@@ -8211,7 +8243,7 @@
       <c r="N85">
         <v>172.800367593094</v>
       </c>
-      <c r="O85" s="3">
+      <c r="O85" s="2">
         <v>4.03132462967192e-8</v>
       </c>
       <c r="P85">
@@ -8220,7 +8252,7 @@
       <c r="Q85">
         <v>0.279554548645457</v>
       </c>
-      <c r="R85" s="5">
+      <c r="R85">
         <v>5</v>
       </c>
       <c r="S85">
@@ -8279,10 +8311,10 @@
       <c r="I86">
         <v>8.477</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86">
         <v>179424673</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86">
         <v>0.12093223929787</v>
       </c>
       <c r="M86">
@@ -8300,7 +8332,7 @@
       <c r="Q86">
         <v>0.484685762133406</v>
       </c>
-      <c r="R86" s="5">
+      <c r="R86">
         <v>5</v>
       </c>
       <c r="S86">
@@ -8359,10 +8391,10 @@
       <c r="I87">
         <v>0.575</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87">
         <v>179424673</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87">
         <v>0.07109375</v>
       </c>
       <c r="M87">
@@ -8380,7 +8412,7 @@
       <c r="Q87">
         <v>0.294736842105263</v>
       </c>
-      <c r="R87" s="5">
+      <c r="R87">
         <v>5</v>
       </c>
       <c r="S87">
@@ -8439,10 +8471,10 @@
       <c r="I88">
         <v>0.908</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88">
         <v>179424673</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88">
         <v>0.0367924528301886</v>
       </c>
       <c r="M88">
@@ -8451,7 +8483,7 @@
       <c r="N88">
         <v>3.80187791194415</v>
       </c>
-      <c r="O88" s="3">
+      <c r="O88" s="2">
         <v>0.0580098923341451</v>
       </c>
       <c r="P88">
@@ -8460,7 +8492,7 @@
       <c r="Q88">
         <v>0.147169811320754</v>
       </c>
-      <c r="R88" s="5">
+      <c r="R88">
         <v>5</v>
       </c>
       <c r="S88">
@@ -8519,10 +8551,10 @@
       <c r="I89">
         <v>0.055</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89">
         <v>179424673</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89">
         <v>0.0540322580645161</v>
       </c>
       <c r="M89">
@@ -8540,7 +8572,7 @@
       <c r="Q89">
         <v>0.216129032258064</v>
       </c>
-      <c r="R89" s="5">
+      <c r="R89">
         <v>5</v>
       </c>
       <c r="S89">
@@ -8599,10 +8631,10 @@
       <c r="I90">
         <v>14.845</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90">
         <v>179424673</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90">
         <v>0.154578237224545</v>
       </c>
       <c r="M90">
@@ -8620,7 +8652,7 @@
       <c r="Q90">
         <v>0.619112775121661</v>
       </c>
-      <c r="R90" s="5">
+      <c r="R90">
         <v>5</v>
       </c>
       <c r="S90">
@@ -8679,10 +8711,10 @@
       <c r="I91">
         <v>2.289</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91">
         <v>179424673</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91">
         <v>0.0888888888888889</v>
       </c>
       <c r="M91">
@@ -8700,7 +8732,7 @@
       <c r="Q91">
         <v>0.4</v>
       </c>
-      <c r="R91" s="5">
+      <c r="R91">
         <v>5</v>
       </c>
       <c r="S91">
@@ -8759,10 +8791,10 @@
       <c r="I92">
         <v>0.07</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92">
         <v>179424673</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92">
         <v>0.0265185185185185</v>
       </c>
       <c r="M92">
@@ -8780,7 +8812,7 @@
       <c r="Q92">
         <v>0.129086538461538</v>
       </c>
-      <c r="R92" s="5">
+      <c r="R92">
         <v>5</v>
       </c>
       <c r="S92">
@@ -8839,10 +8871,10 @@
       <c r="I93">
         <v>0.405</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93">
         <v>179424673</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93">
         <v>0.0824810086929282</v>
       </c>
       <c r="M93">
@@ -8851,7 +8883,7 @@
       <c r="N93">
         <v>75.2350665132542</v>
       </c>
-      <c r="O93" s="3">
+      <c r="O93" s="2">
         <v>2.22044604925031e-17</v>
       </c>
       <c r="P93">
@@ -8860,7 +8892,7 @@
       <c r="Q93">
         <v>0.442521008403361</v>
       </c>
-      <c r="R93" s="5">
+      <c r="R93">
         <v>5</v>
       </c>
       <c r="S93">
@@ -8919,10 +8951,10 @@
       <c r="I94">
         <v>0.015</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94">
         <v>179424673</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94">
         <v>0.064</v>
       </c>
       <c r="M94">
@@ -8940,7 +8972,7 @@
       <c r="Q94">
         <v>0.266666666666666</v>
       </c>
-      <c r="R94" s="5">
+      <c r="R94">
         <v>5</v>
       </c>
       <c r="S94">
@@ -8999,10 +9031,10 @@
       <c r="I95">
         <v>0.494</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95">
         <v>179424673</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95">
         <v>0.175154617039026</v>
       </c>
       <c r="M95">
@@ -9011,7 +9043,7 @@
       <c r="N95">
         <v>828.271234540067</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="2">
         <v>0</v>
       </c>
       <c r="P95">
@@ -9020,7 +9052,7 @@
       <c r="Q95">
         <v>0.818126888217522</v>
       </c>
-      <c r="R95" s="5">
+      <c r="R95">
         <v>5</v>
       </c>
       <c r="S95">
@@ -9079,10 +9111,10 @@
       <c r="I96">
         <v>1.793</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96">
         <v>179424673</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96">
         <v>0.0659539667602022</v>
       </c>
       <c r="M96">
@@ -9100,7 +9132,7 @@
       <c r="Q96">
         <v>0.565857426616641</v>
       </c>
-      <c r="R96" s="5">
+      <c r="R96">
         <v>5</v>
       </c>
       <c r="S96">
@@ -9159,10 +9191,10 @@
       <c r="I97">
         <v>0.389</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97">
         <v>179424673</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97">
         <v>0.0287111441562526</v>
       </c>
       <c r="M97">
@@ -9180,7 +9212,7 @@
       <c r="Q97">
         <v>0.389147286821705</v>
       </c>
-      <c r="R97" s="5">
+      <c r="R97">
         <v>5</v>
       </c>
       <c r="S97">
@@ -9239,10 +9271,10 @@
       <c r="I98">
         <v>15.338</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98">
         <v>179424673</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98">
         <v>0.0424064228928568</v>
       </c>
       <c r="M98">
@@ -9260,7 +9292,7 @@
       <c r="Q98">
         <v>0.16986606571735</v>
       </c>
-      <c r="R98" s="5">
+      <c r="R98">
         <v>5</v>
       </c>
       <c r="S98">
@@ -9319,10 +9351,10 @@
       <c r="I99">
         <v>0.498</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99">
         <v>179424673</v>
       </c>
-      <c r="L99" s="5">
+      <c r="L99">
         <v>0.0402369236535754</v>
       </c>
       <c r="M99">
@@ -9331,7 +9363,7 @@
       <c r="N99">
         <v>45.7415308025899</v>
       </c>
-      <c r="O99" s="3">
+      <c r="O99" s="2">
         <v>1.35285181945832e-8</v>
       </c>
       <c r="P99">
@@ -9340,7 +9372,7 @@
       <c r="Q99">
         <v>0.177681973901997</v>
       </c>
-      <c r="R99" s="5">
+      <c r="R99">
         <v>5</v>
       </c>
       <c r="S99">
@@ -9399,10 +9431,10 @@
       <c r="I100">
         <v>0.095</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100">
         <v>179424673</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100">
         <v>0.14</v>
       </c>
       <c r="M100">
@@ -9420,7 +9452,7 @@
       <c r="Q100">
         <v>0.56</v>
       </c>
-      <c r="R100" s="5">
+      <c r="R100">
         <v>5</v>
       </c>
       <c r="S100">
@@ -9479,10 +9511,10 @@
       <c r="I101">
         <v>0.493</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101">
         <v>179424673</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101">
         <v>0.173495045580657</v>
       </c>
       <c r="M101">
@@ -9500,7 +9532,7 @@
       <c r="Q101">
         <v>0.731888710540395</v>
       </c>
-      <c r="R101" s="5">
+      <c r="R101">
         <v>5</v>
       </c>
       <c r="S101">
@@ -9531,158 +9563,373 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:27">
-      <c r="A103" s="4" t="s">
+    <row r="104" spans="1:27">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I104" s="3">
+        <f t="shared" ref="I104:Q104" si="0">AVERAGE(I2:I21)</f>
+        <v>-1</v>
+      </c>
+      <c r="L104" s="3">
+        <f t="shared" si="0"/>
+        <v>0.02029506735</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="0"/>
+        <v>126.13759238265</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="0"/>
+        <v>643.0933796104</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="0"/>
+        <v>0.136516393552</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4881467155</v>
+      </c>
+      <c r="Q104" s="3">
+        <f t="shared" si="0"/>
+        <v>0.11275469415</v>
+      </c>
+      <c r="S104" s="3">
+        <f t="shared" ref="S104:AA104" si="1">AVERAGE(S2:S21)</f>
+        <v>15.066666667</v>
+      </c>
+      <c r="T104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1748901804</v>
+      </c>
+      <c r="U104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3868126313</v>
+      </c>
+      <c r="V104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1139903874</v>
+      </c>
+      <c r="W104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2220737225</v>
+      </c>
+      <c r="X104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1386901316</v>
+      </c>
+      <c r="Y104" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3761031337</v>
+      </c>
+      <c r="Z104" s="3">
+        <f t="shared" si="1"/>
+        <v>194.9000000035</v>
+      </c>
+      <c r="AA104" s="3">
+        <f t="shared" si="1"/>
+        <v>101.70000000165</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
+      <c r="A105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I105" s="3">
+        <f t="shared" ref="I105:Q105" si="2">AVERAGE(I22:I41)</f>
+        <v>-1</v>
+      </c>
+      <c r="L105" s="3">
+        <f t="shared" si="2"/>
+        <v>0.1037955255</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="2"/>
+        <v>266.90923920465</v>
+      </c>
+      <c r="N105" s="3">
+        <f t="shared" si="2"/>
+        <v>1093.83545720189</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="2"/>
+        <v>0.0414376710353167</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="2"/>
+        <v>1.65657754725</v>
+      </c>
+      <c r="Q105" s="3">
+        <f t="shared" si="2"/>
+        <v>0.46086069385</v>
+      </c>
+      <c r="S105" s="3">
+        <f t="shared" ref="S105:AA105" si="3">AVERAGE(S22:S41)</f>
+        <v>3.0277664727</v>
+      </c>
+      <c r="T105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.52458638245</v>
+      </c>
+      <c r="U105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.77119669125</v>
+      </c>
+      <c r="V105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.36528385935</v>
+      </c>
+      <c r="W105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.76611415795</v>
+      </c>
+      <c r="X105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.3139411718</v>
+      </c>
+      <c r="Y105" s="3">
+        <f t="shared" si="3"/>
+        <v>0.89113982245</v>
+      </c>
+      <c r="Z105" s="3">
+        <f t="shared" si="3"/>
+        <v>600.11484219415</v>
+      </c>
+      <c r="AA105" s="3">
+        <f t="shared" si="3"/>
+        <v>136.2263510518</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
+      <c r="A106" t="s">
+        <v>50</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I106" s="3">
+        <f t="shared" ref="I106:Y106" si="4">AVERAGE(I42:I61)</f>
+        <v>-1</v>
+      </c>
+      <c r="L106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.0473249668</v>
+      </c>
+      <c r="M106" s="3">
+        <f t="shared" si="4"/>
+        <v>253.10309940495</v>
+      </c>
+      <c r="N106" s="3">
+        <f t="shared" si="4"/>
+        <v>890.493469140421</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.188546578526347</v>
+      </c>
+      <c r="P106" s="3">
+        <f t="shared" si="4"/>
+        <v>1.40620692285</v>
+      </c>
+      <c r="Q106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2246012436</v>
+      </c>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2796717172</v>
+      </c>
+      <c r="T106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.55970885075</v>
+      </c>
+      <c r="U106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.67408391425</v>
+      </c>
+      <c r="V106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.3199748114</v>
+      </c>
+      <c r="W106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.67633239585</v>
+      </c>
+      <c r="X106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.47141144775</v>
+      </c>
+      <c r="Y106" s="3">
+        <f t="shared" si="4"/>
+        <v>0.86663567575</v>
+      </c>
+      <c r="Z106" s="3">
+        <f>AVERAGE(Z42:Z61)</f>
+        <v>514.64810603835</v>
+      </c>
+      <c r="AA106" s="3">
+        <f>AVERAGE(AA42:AA61)</f>
+        <v>167.7801767679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
+      <c r="A107" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B107" t="s">
         <v>53</v>
       </c>
-      <c r="I103">
-        <f t="shared" ref="I103:R103" si="0">AVERAGE(I62:I81)</f>
+      <c r="I107">
+        <f t="shared" ref="I107:R107" si="5">AVERAGE(I62:I81)</f>
         <v>0.1763</v>
       </c>
-      <c r="L103" s="5">
-        <f t="shared" si="0"/>
+      <c r="L107">
+        <f t="shared" si="5"/>
         <v>0.0945312991</v>
       </c>
-      <c r="M103" s="5">
-        <f t="shared" si="0"/>
+      <c r="M107">
+        <f t="shared" si="5"/>
         <v>69.2267849379</v>
       </c>
-      <c r="N103" s="5">
-        <f t="shared" si="0"/>
+      <c r="N107">
+        <f t="shared" si="5"/>
         <v>510.06593590675</v>
       </c>
-      <c r="O103" s="5">
-        <f t="shared" si="0"/>
+      <c r="O107">
+        <f t="shared" si="5"/>
         <v>0.0605419291795001</v>
       </c>
-      <c r="P103" s="5">
-        <f t="shared" si="0"/>
+      <c r="P107">
+        <f t="shared" si="5"/>
         <v>1.83965927195</v>
       </c>
-      <c r="Q103" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q107">
+        <f t="shared" si="5"/>
         <v>0.44551909795</v>
       </c>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5">
-        <f t="shared" ref="S103:AA103" si="1">AVERAGE(S62:S81)</f>
+      <c r="S107">
+        <f t="shared" ref="S107:AA107" si="6">AVERAGE(S62:S81)</f>
         <v>2.25</v>
       </c>
-      <c r="T103" s="5">
-        <f t="shared" si="1"/>
+      <c r="T107">
+        <f t="shared" si="6"/>
         <v>0.34063731995</v>
       </c>
-      <c r="U103" s="5">
-        <f t="shared" si="1"/>
+      <c r="U107">
+        <f t="shared" si="6"/>
         <v>0.8190078708</v>
       </c>
-      <c r="V103" s="5">
-        <f t="shared" si="1"/>
+      <c r="V107">
+        <f t="shared" si="6"/>
         <v>0.2741068022</v>
       </c>
-      <c r="W103" s="5">
-        <f t="shared" si="1"/>
+      <c r="W107">
+        <f t="shared" si="6"/>
         <v>0.58049347195</v>
       </c>
-      <c r="X103" s="5">
-        <f t="shared" si="1"/>
+      <c r="X107">
+        <f t="shared" si="6"/>
         <v>0.13497437395</v>
       </c>
-      <c r="Y103" s="5">
-        <f t="shared" si="1"/>
+      <c r="Y107">
+        <f t="shared" si="6"/>
         <v>0.85928586715</v>
       </c>
-      <c r="Z103" s="5">
-        <f t="shared" si="1"/>
+      <c r="Z107">
+        <f t="shared" si="6"/>
         <v>421.59</v>
       </c>
-      <c r="AA103" s="5">
-        <f t="shared" si="1"/>
+      <c r="AA107">
+        <f t="shared" si="6"/>
         <v>146.48</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
-      <c r="A104" s="4" t="s">
+    <row r="108" spans="1:27">
+      <c r="A108" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B108" t="s">
         <v>53</v>
       </c>
-      <c r="I104">
-        <f t="shared" ref="I104:AA104" si="2">AVERAGE(I82:I101)</f>
+      <c r="I108">
+        <f t="shared" ref="I108:AA108" si="7">AVERAGE(I82:I101)</f>
         <v>2.51825</v>
       </c>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5">
-        <f t="shared" si="2"/>
+      <c r="L108">
+        <f t="shared" si="7"/>
         <v>0.0864909999954661</v>
       </c>
-      <c r="M104" s="5">
-        <f t="shared" si="2"/>
+      <c r="M108">
+        <f t="shared" si="7"/>
         <v>143.050487046103</v>
       </c>
-      <c r="N104" s="5">
-        <f t="shared" si="2"/>
+      <c r="N108">
+        <f t="shared" si="7"/>
         <v>522.452472959246</v>
       </c>
-      <c r="O104" s="5">
-        <f t="shared" si="2"/>
+      <c r="O108">
+        <f t="shared" si="7"/>
         <v>0.0300234352788135</v>
       </c>
-      <c r="P104" s="5">
-        <f t="shared" si="2"/>
+      <c r="P108">
+        <f t="shared" si="7"/>
         <v>1.79373037811723</v>
       </c>
-      <c r="Q104" s="5">
-        <f t="shared" si="2"/>
+      <c r="Q108">
+        <f t="shared" si="7"/>
         <v>0.407372587513867</v>
       </c>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5">
-        <f t="shared" si="2"/>
+      <c r="S108">
+        <f t="shared" si="7"/>
         <v>2.34</v>
       </c>
-      <c r="T104" s="5">
-        <f t="shared" si="2"/>
+      <c r="T108">
+        <f t="shared" si="7"/>
         <v>0.334669025631536</v>
       </c>
-      <c r="U104" s="5">
-        <f t="shared" si="2"/>
+      <c r="U108">
+        <f t="shared" si="7"/>
         <v>0.809415601348155</v>
       </c>
-      <c r="V104" s="5">
-        <f t="shared" si="2"/>
+      <c r="V108">
+        <f t="shared" si="7"/>
         <v>0.260737140898347</v>
       </c>
-      <c r="W104" s="5">
-        <f t="shared" si="2"/>
+      <c r="W108">
+        <f t="shared" si="7"/>
         <v>0.554409686028763</v>
       </c>
-      <c r="X104" s="5">
-        <f t="shared" si="2"/>
+      <c r="X108">
+        <f t="shared" si="7"/>
         <v>0.147037098514895</v>
       </c>
-      <c r="Y104" s="5">
-        <f t="shared" si="2"/>
+      <c r="Y108">
+        <f t="shared" si="7"/>
         <v>0.88461825</v>
       </c>
-      <c r="Z104" s="5">
-        <f t="shared" si="2"/>
+      <c r="Z108">
+        <f t="shared" si="7"/>
         <v>404.59</v>
       </c>
-      <c r="AA104" s="5">
-        <f t="shared" si="2"/>
+      <c r="AA108">
+        <f t="shared" si="7"/>
         <v>68.92</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
+++ b/experiments/UCI-20-SSDP-ACOxSSDPxNMEEFxMESDIFxSDIGA-Tabelao.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>Algoritmo</t>
   </si>
@@ -175,6 +175,12 @@
     <t>SSDP-ACO</t>
   </si>
   <si>
+    <t>SSDP-ACOv2</t>
+  </si>
+  <si>
+    <t>SSDP-ACOv3</t>
+  </si>
+  <si>
     <t>Average</t>
   </si>
 </sst>
@@ -183,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -204,40 +210,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,15 +226,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +243,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,24 +302,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,17 +332,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,7 +348,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,19 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,19 +375,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,19 +417,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,7 +483,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,73 +525,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,17 +579,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,17 +599,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,9 +620,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,8 +647,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,112 +672,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,39 +786,42 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -821,10 +830,13 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -920,7 +932,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A104:AA108" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A144:AA148" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="27">
     <tableColumn id="1" name="Column1"/>
     <tableColumn id="2" name="Column2"/>
@@ -1213,19 +1225,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AA108"/>
+  <dimension ref="A1:AA150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q113" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y114" sqref="Y114"/>
+      <selection pane="bottomRight" activeCell="V125" sqref="V125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="6.375" customWidth="1"/>
@@ -1247,79 +1259,79 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1615,7 +1627,7 @@
       <c r="N5">
         <v>159.2785475</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>2.77e-5</v>
       </c>
       <c r="P5">
@@ -2445,7 +2457,7 @@
       <c r="N15">
         <v>127.1382514</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="3">
         <v>0.000107</v>
       </c>
       <c r="P15">
@@ -2777,7 +2789,7 @@
       <c r="N19">
         <v>55.39469136</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="3">
         <v>7.52e-9</v>
       </c>
       <c r="P19">
@@ -3109,7 +3121,7 @@
       <c r="N23">
         <v>24.9268384</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="3">
         <v>9.2e-7</v>
       </c>
       <c r="P23">
@@ -3192,7 +3204,7 @@
       <c r="N24">
         <v>42.9657228</v>
       </c>
-      <c r="O24" s="2">
+      <c r="O24" s="3">
         <v>5.57e-11</v>
       </c>
       <c r="P24">
@@ -3524,7 +3536,7 @@
       <c r="N28">
         <v>13.16014729</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="3">
         <v>0.000615</v>
       </c>
       <c r="P28">
@@ -4354,7 +4366,7 @@
       <c r="N38">
         <v>171.5156082</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="3">
         <v>1.58e-9</v>
       </c>
       <c r="P38">
@@ -5018,7 +5030,7 @@
       <c r="N46">
         <v>52.13738772</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="3">
         <v>5.17e-13</v>
       </c>
       <c r="P46">
@@ -6263,7 +6275,7 @@
       <c r="N61">
         <v>157.4475517</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="3">
         <v>7.81e-14</v>
       </c>
       <c r="P61">
@@ -6429,7 +6441,7 @@
       <c r="N63">
         <v>25.1259588</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="3">
         <v>6.89e-7</v>
       </c>
       <c r="P63">
@@ -6512,7 +6524,7 @@
       <c r="N64">
         <v>37.60663096</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="3">
         <v>4.39e-9</v>
       </c>
       <c r="P64">
@@ -6595,7 +6607,7 @@
       <c r="N65">
         <v>172.8003676</v>
       </c>
-      <c r="O65" s="2">
+      <c r="O65" s="3">
         <v>4.03e-8</v>
       </c>
       <c r="P65">
@@ -6844,7 +6856,7 @@
       <c r="N68">
         <v>17.3624707</v>
       </c>
-      <c r="O68" s="2">
+      <c r="O68" s="3">
         <v>0.000255</v>
       </c>
       <c r="P68">
@@ -7259,7 +7271,7 @@
       <c r="N73">
         <v>66.77699521</v>
       </c>
-      <c r="O73" s="2">
+      <c r="O73" s="3">
         <v>2.42e-15</v>
       </c>
       <c r="P73">
@@ -7425,7 +7437,7 @@
       <c r="N75">
         <v>331.6535568</v>
       </c>
-      <c r="O75" s="2">
+      <c r="O75" s="3">
         <v>5.29e-8</v>
       </c>
       <c r="P75">
@@ -7757,7 +7769,7 @@
       <c r="N79">
         <v>41.4577365</v>
       </c>
-      <c r="O79" s="2">
+      <c r="O79" s="3">
         <v>1.8e-8</v>
       </c>
       <c r="P79">
@@ -8083,7 +8095,7 @@
       <c r="N83">
         <v>21.5108875857421</v>
       </c>
-      <c r="O83" s="2">
+      <c r="O83" s="3">
         <v>0.000190541740924143</v>
       </c>
       <c r="P83">
@@ -8163,7 +8175,7 @@
       <c r="N84">
         <v>26.7475223075304</v>
       </c>
-      <c r="O84" s="2">
+      <c r="O84" s="3">
         <v>1.25875485914583e-6</v>
       </c>
       <c r="P84">
@@ -8243,7 +8255,7 @@
       <c r="N85">
         <v>172.800367593094</v>
       </c>
-      <c r="O85" s="2">
+      <c r="O85" s="3">
         <v>4.03132462967192e-8</v>
       </c>
       <c r="P85">
@@ -8483,7 +8495,7 @@
       <c r="N88">
         <v>3.80187791194415</v>
       </c>
-      <c r="O88" s="2">
+      <c r="O88" s="3">
         <v>0.0580098923341451</v>
       </c>
       <c r="P88">
@@ -8883,7 +8895,7 @@
       <c r="N93">
         <v>75.2350665132542</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="3">
         <v>2.22044604925031e-17</v>
       </c>
       <c r="P93">
@@ -9043,7 +9055,7 @@
       <c r="N95">
         <v>828.271234540067</v>
       </c>
-      <c r="O95" s="2">
+      <c r="O95" s="3">
         <v>0</v>
       </c>
       <c r="P95">
@@ -9363,7 +9375,7 @@
       <c r="N99">
         <v>45.7415308025899</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="3">
         <v>1.35285181945832e-8</v>
       </c>
       <c r="P99">
@@ -9563,365 +9575,3686 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:27">
-      <c r="A104" t="s">
+    <row r="102" s="1" customFormat="1" spans="1:27">
+      <c r="A102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1">
+        <v>226</v>
+      </c>
+      <c r="E102" s="1">
+        <v>57</v>
+      </c>
+      <c r="F102" s="1">
+        <v>169</v>
+      </c>
+      <c r="G102" s="1">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1">
+        <v>154</v>
+      </c>
+      <c r="I102" s="1">
+        <v>41.09</v>
+      </c>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0.156132038530816</v>
+      </c>
+      <c r="M102" s="1">
+        <v>3.13867424242424</v>
+      </c>
+      <c r="N102" s="1">
+        <v>135.616775624643</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>2.92931747818744</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0.827841793833696</v>
+      </c>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="T102" s="1">
+        <v>0.328318584070796</v>
+      </c>
+      <c r="U102" s="1">
+        <v>0.738810160427807</v>
+      </c>
+      <c r="V102" s="1">
+        <v>0.238938053097345</v>
+      </c>
+      <c r="W102" s="1">
+        <v>0.947368421052631</v>
+      </c>
+      <c r="X102" s="1">
+        <v>0.119526627218934</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>54</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" spans="1:27">
+      <c r="A103" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1">
+        <v>286</v>
+      </c>
+      <c r="E103" s="1">
+        <v>201</v>
+      </c>
+      <c r="F103" s="1">
+        <v>85</v>
+      </c>
+      <c r="G103" s="1">
+        <v>9</v>
+      </c>
+      <c r="H103" s="1">
+        <v>41</v>
+      </c>
+      <c r="I103" s="1">
+        <v>7.361</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0.0595432539488483</v>
+      </c>
+      <c r="M103" s="1">
+        <v>3.63205107428511</v>
+      </c>
+      <c r="N103" s="1">
+        <v>24.2378255204184</v>
+      </c>
+      <c r="O103" s="4">
+        <v>1.20265619911741e-6</v>
+      </c>
+      <c r="P103" s="1">
+        <v>1.12023387435992</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0.285068773778168</v>
+      </c>
+      <c r="R103" s="1"/>
+      <c r="S103" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="T103" s="1">
+        <v>0.713286713286713</v>
+      </c>
+      <c r="U103" s="1">
+        <v>0.787297233378831</v>
+      </c>
+      <c r="V103" s="1">
+        <v>0.560839160839161</v>
+      </c>
+      <c r="W103" s="1">
+        <v>0.798009950248756</v>
+      </c>
+      <c r="X103" s="1">
+        <v>0.512941176470588</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>0.905473</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>160.4</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="1" spans="1:27">
+      <c r="A104" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="1">
+        <v>1</v>
+      </c>
+      <c r="D104" s="1">
+        <v>105</v>
+      </c>
+      <c r="E104" s="1">
+        <v>44</v>
+      </c>
+      <c r="F104" s="1">
+        <v>61</v>
+      </c>
+      <c r="G104" s="1">
+        <v>12</v>
+      </c>
+      <c r="H104" s="1">
+        <v>191</v>
+      </c>
+      <c r="I104" s="1">
+        <v>6.466</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0.115646258503401</v>
+      </c>
+      <c r="M104" s="1">
+        <v>3.09550361918783</v>
+      </c>
+      <c r="N104" s="1">
+        <v>26.7475223075304</v>
+      </c>
+      <c r="O104" s="4">
+        <v>1.25875485914583e-6</v>
+      </c>
+      <c r="P104" s="1">
+        <v>1.74628444089743</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0.475037257824143</v>
+      </c>
+      <c r="R104" s="1"/>
+      <c r="S104" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0.428571428571428</v>
+      </c>
+      <c r="U104" s="1">
+        <v>0.731776337137971</v>
+      </c>
+      <c r="V104" s="1">
+        <v>0.295238095238095</v>
+      </c>
+      <c r="W104" s="1">
+        <v>0.704545454545454</v>
+      </c>
+      <c r="X104" s="1">
+        <v>0.229508196721311</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>0.977273</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>31</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="1" spans="1:27">
+      <c r="A105" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+      <c r="D105" s="1">
+        <v>1728</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F105" s="1">
+        <v>518</v>
+      </c>
+      <c r="G105" s="1">
+        <v>6</v>
+      </c>
+      <c r="H105" s="1">
+        <v>21</v>
+      </c>
+      <c r="I105" s="1">
+        <v>14.908</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0.0586805555555555</v>
+      </c>
+      <c r="M105" s="1">
+        <v>233.081264157048</v>
+      </c>
+      <c r="N105" s="1">
+        <v>172.800367593094</v>
+      </c>
+      <c r="O105" s="4">
+        <v>4.03132462967192e-8</v>
+      </c>
+      <c r="P105" s="1">
+        <v>1.27041322314049</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0.279554548645457</v>
+      </c>
+      <c r="R105" s="1"/>
+      <c r="S105" s="1">
+        <v>1</v>
+      </c>
+      <c r="T105" s="1">
+        <v>0.299999999999999</v>
+      </c>
+      <c r="U105" s="1">
+        <v>0.889583333333333</v>
+      </c>
+      <c r="V105" s="1">
+        <v>0.26875</v>
+      </c>
+      <c r="W105" s="1">
+        <v>0.383801652892561</v>
+      </c>
+      <c r="X105" s="1">
+        <v>0.104247104247104</v>
+      </c>
+      <c r="Y105" s="1">
+        <v>0.990083</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>464.4</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="1" spans="1:27">
+      <c r="A106" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3196</v>
+      </c>
+      <c r="E106" s="1">
+        <v>1669</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1527</v>
+      </c>
+      <c r="G106" s="1">
+        <v>36</v>
+      </c>
+      <c r="H106" s="1">
+        <v>73</v>
+      </c>
+      <c r="I106" s="1">
+        <v>90.45</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0.125869888205062</v>
+      </c>
+      <c r="M106" s="1">
+        <v>3.77575071494435</v>
+      </c>
+      <c r="N106" s="1">
+        <v>837.553525479057</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>1.48719139837908</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0.504475423993835</v>
+      </c>
+      <c r="R106" s="1"/>
+      <c r="S106" s="1">
+        <v>4</v>
+      </c>
+      <c r="T106" s="1">
+        <v>0.507321652065081</v>
+      </c>
+      <c r="U106" s="1">
+        <v>0.776634056287449</v>
+      </c>
+      <c r="V106" s="1">
+        <v>0.390801001251564</v>
+      </c>
+      <c r="W106" s="1">
+        <v>0.748352306770521</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0.243876882776686</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>0.85021</v>
+      </c>
+      <c r="Z106" s="1">
+        <v>1249</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>372.4</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="1:27">
+      <c r="A107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>32</v>
+      </c>
+      <c r="E107" s="1">
+        <v>13</v>
+      </c>
+      <c r="F107" s="1">
+        <v>19</v>
+      </c>
+      <c r="G107" s="1">
+        <v>56</v>
+      </c>
+      <c r="H107" s="1">
+        <v>157</v>
+      </c>
+      <c r="I107" s="1">
+        <v>11.436</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0.08359375</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="N107" s="1">
+        <v>4.51438708331508</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0.0385626676842404</v>
+      </c>
+      <c r="P107" s="1">
+        <v>1.59531135531135</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0.346558704453441</v>
+      </c>
+      <c r="R107" s="1"/>
+      <c r="S107" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0.425</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0.648095238095238</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0.25625</v>
+      </c>
+      <c r="W107" s="1">
+        <v>0.63076923076923</v>
+      </c>
+      <c r="X107" s="1">
+        <v>0.284210526315789</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>8.2</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="1:27">
+      <c r="A108" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>106</v>
+      </c>
+      <c r="E108" s="1">
+        <v>53</v>
+      </c>
+      <c r="F108" s="1">
+        <v>53</v>
+      </c>
+      <c r="G108" s="1">
+        <v>58</v>
+      </c>
+      <c r="H108" s="1">
+        <v>334</v>
+      </c>
+      <c r="I108" s="1">
+        <v>30.917</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L108" s="1">
+        <v>0.0556603773584905</v>
+      </c>
+      <c r="M108" s="1">
+        <v>4.95402597402597</v>
+      </c>
+      <c r="N108" s="1">
+        <v>8.91240342273798</v>
+      </c>
+      <c r="O108" s="4">
+        <v>0.01670126703825</v>
+      </c>
+      <c r="P108" s="1">
+        <v>1.56788907133734</v>
+      </c>
+      <c r="Q108" s="1">
+        <v>0.222641509433962</v>
+      </c>
+      <c r="R108" s="1"/>
+      <c r="S108" s="1">
+        <v>1</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0.213207547169811</v>
+      </c>
+      <c r="U108" s="1">
+        <v>0.783944535668673</v>
+      </c>
+      <c r="V108" s="1">
+        <v>0.162264150943396</v>
+      </c>
+      <c r="W108" s="1">
+        <v>0.324528301886792</v>
+      </c>
+      <c r="X108" s="1">
+        <v>0.10188679245283</v>
+      </c>
+      <c r="Y108" s="1">
+        <v>0.811321</v>
+      </c>
+      <c r="Z108" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="AA108" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="1:27">
+      <c r="A109" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>124</v>
+      </c>
+      <c r="E109" s="1">
+        <v>62</v>
+      </c>
+      <c r="F109" s="1">
+        <v>62</v>
+      </c>
+      <c r="G109" s="1">
+        <v>6</v>
+      </c>
+      <c r="H109" s="1">
+        <v>17</v>
+      </c>
+      <c r="I109" s="1">
+        <v>2.819</v>
+      </c>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L109" s="1">
+        <v>0.0540322580645161</v>
+      </c>
+      <c r="M109" s="1">
+        <v>3.89666666666666</v>
+      </c>
+      <c r="N109" s="1">
+        <v>9.9070851514659</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0.00394938715278165</v>
+      </c>
+      <c r="P109" s="1">
+        <v>1.60735564401199</v>
+      </c>
+      <c r="Q109" s="1">
+        <v>0.216129032258064</v>
+      </c>
+      <c r="R109" s="1"/>
+      <c r="S109" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="T109" s="1">
+        <v>0.208064516129032</v>
+      </c>
+      <c r="U109" s="1">
+        <v>0.803677822005995</v>
+      </c>
+      <c r="V109" s="1">
+        <v>0.158064516129032</v>
+      </c>
+      <c r="W109" s="1">
+        <v>0.316129032258064</v>
+      </c>
+      <c r="X109" s="1">
+        <v>0.0999999999999999</v>
+      </c>
+      <c r="Y109" s="1">
+        <v>0.66129</v>
+      </c>
+      <c r="Z109" s="1">
+        <v>19.6</v>
+      </c>
+      <c r="AA109" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="110" s="1" customFormat="1" spans="1:27">
+      <c r="A110" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>8124</v>
+      </c>
+      <c r="E110" s="1">
+        <v>4208</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3916</v>
+      </c>
+      <c r="G110" s="1">
+        <v>22</v>
+      </c>
+      <c r="H110" s="1">
+        <v>116</v>
+      </c>
+      <c r="I110" s="1">
+        <v>226.931</v>
+      </c>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L110" s="1">
+        <v>0.16688894755611</v>
+      </c>
+      <c r="M110" s="1">
+        <v>530.494332731562</v>
+      </c>
+      <c r="N110" s="1">
+        <v>3957.1077491679</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+      <c r="P110" s="1">
+        <v>1.88981095695956</v>
+      </c>
+      <c r="Q110" s="1">
+        <v>0.668419315123292</v>
+      </c>
+      <c r="R110" s="1"/>
+      <c r="S110" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T110" s="1">
+        <v>0.362973904480551</v>
+      </c>
+      <c r="U110" s="1">
+        <v>0.978868107691511</v>
+      </c>
+      <c r="V110" s="1">
+        <v>0.354899064500246</v>
+      </c>
+      <c r="W110" s="1">
+        <v>0.685171102661597</v>
+      </c>
+      <c r="X110" s="1">
+        <v>0.0167517875383043</v>
+      </c>
+      <c r="Y110" s="1">
+        <v>0.809886</v>
+      </c>
+      <c r="Z110" s="1">
+        <v>2883.2</v>
+      </c>
+      <c r="AA110" s="1">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="1" spans="1:27">
+      <c r="A111" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>12960</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4320</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8640</v>
+      </c>
+      <c r="G111" s="1">
+        <v>8</v>
+      </c>
+      <c r="H111" s="1">
         <v>27</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="I111" s="1">
+        <v>106.819</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L111" s="1">
+        <v>0.0888888888888889</v>
+      </c>
+      <c r="M111" s="1">
+        <v>1728</v>
+      </c>
+      <c r="N111" s="1">
+        <v>4477.0909090909</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+      <c r="P111" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q111" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T111" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="U111" s="1">
+        <v>1</v>
+      </c>
+      <c r="V111" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="W111" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="X111" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z111" s="1">
+        <v>1728</v>
+      </c>
+      <c r="AA111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" s="1" customFormat="1" spans="1:27">
+      <c r="A112" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I104" s="3">
-        <f t="shared" ref="I104:Q104" si="0">AVERAGE(I2:I21)</f>
-        <v>-1</v>
-      </c>
-      <c r="L104" s="3">
+      <c r="B112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>90</v>
+      </c>
+      <c r="E112" s="1">
+        <v>64</v>
+      </c>
+      <c r="F112" s="1">
+        <v>26</v>
+      </c>
+      <c r="G112" s="1">
+        <v>8</v>
+      </c>
+      <c r="H112" s="1">
+        <v>23</v>
+      </c>
+      <c r="I112" s="1">
+        <v>2.687</v>
+      </c>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L112" s="1">
+        <v>0.0266666666666666</v>
+      </c>
+      <c r="M112" s="1">
+        <v>5.66</v>
+      </c>
+      <c r="N112" s="1">
+        <v>2.62035553288879</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0.131065688252726</v>
+      </c>
+      <c r="P112" s="1">
+        <v>1.26899561036789</v>
+      </c>
+      <c r="Q112" s="1">
+        <v>0.129807692307692</v>
+      </c>
+      <c r="R112" s="1"/>
+      <c r="S112" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="U112" s="1">
+        <v>0.902396878483835</v>
+      </c>
+      <c r="V112" s="1">
+        <v>0.168888888888888</v>
+      </c>
+      <c r="W112" s="1">
+        <v>0.2375</v>
+      </c>
+      <c r="X112" s="1">
+        <v>0.107692307692307</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>0.71875</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="AA112" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="1" spans="1:27">
+      <c r="A113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>339</v>
+      </c>
+      <c r="E113" s="1">
+        <v>84</v>
+      </c>
+      <c r="F113" s="1">
+        <v>255</v>
+      </c>
+      <c r="G113" s="1">
+        <v>17</v>
+      </c>
+      <c r="H113" s="1">
+        <v>37</v>
+      </c>
+      <c r="I113" s="1">
+        <v>11.964</v>
+      </c>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L113" s="1">
+        <v>0.0839950922807841</v>
+      </c>
+      <c r="M113" s="1">
+        <v>1.59138878019796</v>
+      </c>
+      <c r="N113" s="1">
+        <v>72.8113983333506</v>
+      </c>
+      <c r="O113" s="4">
+        <v>2.22044604925031e-17</v>
+      </c>
+      <c r="P113" s="1">
+        <v>2.48563796563455</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>0.450644257703081</v>
+      </c>
+      <c r="R113" s="1"/>
+      <c r="S113" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T113" s="1">
+        <v>0.23244837758112</v>
+      </c>
+      <c r="U113" s="1">
+        <v>0.615910292369623</v>
+      </c>
+      <c r="V113" s="1">
+        <v>0.141592920353982</v>
+      </c>
+      <c r="W113" s="1">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="X113" s="1">
+        <v>0.12078431372549</v>
+      </c>
+      <c r="Y113" s="1">
+        <v>0.619048</v>
+      </c>
+      <c r="Z113" s="1">
+        <v>48</v>
+      </c>
+      <c r="AA113" s="1">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="1" spans="1:27">
+      <c r="A114" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>15</v>
+      </c>
+      <c r="E114" s="1">
+        <v>9</v>
+      </c>
+      <c r="F114" s="1">
+        <v>6</v>
+      </c>
+      <c r="G114" s="1">
+        <v>6</v>
+      </c>
+      <c r="H114" s="1">
+        <v>16</v>
+      </c>
+      <c r="I114" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L114" s="1">
+        <v>0.064</v>
+      </c>
+      <c r="M114" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1.77197802197802</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0.209091631348456</v>
+      </c>
+      <c r="P114" s="1">
+        <v>1.58333333333333</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="R114" s="1"/>
+      <c r="S114" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="T114" s="1">
+        <v>0.226666666666666</v>
+      </c>
+      <c r="U114" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="V114" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="W114" s="1">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="X114" s="1">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="Y114" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA114" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="1" spans="1:27">
+      <c r="A115" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1066</v>
+      </c>
+      <c r="E115" s="1">
+        <v>331</v>
+      </c>
+      <c r="F115" s="1">
+        <v>735</v>
+      </c>
+      <c r="G115" s="1">
+        <v>12</v>
+      </c>
+      <c r="H115" s="1">
+        <v>42</v>
+      </c>
+      <c r="I115" s="1">
+        <v>10.048</v>
+      </c>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L115" s="1">
+        <v>0.175154617039026</v>
+      </c>
+      <c r="M115" s="1">
+        <v>270.8</v>
+      </c>
+      <c r="N115" s="1">
+        <v>828.271234540067</v>
+      </c>
+      <c r="O115" s="4">
+        <v>0</v>
+      </c>
+      <c r="P115" s="1">
+        <v>3.22054380664652</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>0.818126888217522</v>
+      </c>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1">
+        <v>2</v>
+      </c>
+      <c r="T115" s="1">
+        <v>0.254033771106941</v>
+      </c>
+      <c r="U115" s="1">
+        <v>1</v>
+      </c>
+      <c r="V115" s="1">
+        <v>0.254033771106941</v>
+      </c>
+      <c r="W115" s="1">
+        <v>0.818126888217522</v>
+      </c>
+      <c r="X115" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z115" s="1">
+        <v>270.8</v>
+      </c>
+      <c r="AA115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="1" spans="1:27">
+      <c r="A116" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1</v>
+      </c>
+      <c r="D116" s="1">
+        <v>683</v>
+      </c>
+      <c r="E116" s="1">
+        <v>92</v>
+      </c>
+      <c r="F116" s="1">
+        <v>591</v>
+      </c>
+      <c r="G116" s="1">
+        <v>35</v>
+      </c>
+      <c r="H116" s="1">
+        <v>99</v>
+      </c>
+      <c r="I116" s="1">
+        <v>30.52</v>
+      </c>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0.0777561743149356</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0.753954551451579</v>
+      </c>
+      <c r="N116" s="1">
+        <v>182.7204339983</v>
+      </c>
+      <c r="O116" s="1">
+        <v>0</v>
+      </c>
+      <c r="P116" s="1">
+        <v>3.18349646779345</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>0.667115427058044</v>
+      </c>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="T116" s="1">
+        <v>0.270571010248901</v>
+      </c>
+      <c r="U116" s="1">
+        <v>0.428816508106878</v>
+      </c>
+      <c r="V116" s="1">
+        <v>0.11420204978038</v>
+      </c>
+      <c r="W116" s="1">
+        <v>0.847826086956521</v>
+      </c>
+      <c r="X116" s="1">
+        <v>0.180710659898477</v>
+      </c>
+      <c r="Y116" s="1">
+        <v>0.891304</v>
+      </c>
+      <c r="Z116" s="1">
+        <v>78</v>
+      </c>
+      <c r="AA116" s="1">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="1" spans="1:27">
+      <c r="A117" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1">
+        <v>187</v>
+      </c>
+      <c r="E117" s="1">
+        <v>172</v>
+      </c>
+      <c r="F117" s="1">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1">
+        <v>22</v>
+      </c>
+      <c r="H117" s="1">
+        <v>44</v>
+      </c>
+      <c r="I117" s="1">
+        <v>11.219</v>
+      </c>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0.0287111441562526</v>
+      </c>
+      <c r="M117" s="1">
+        <v>42.1</v>
+      </c>
+      <c r="N117" s="1">
+        <v>8.83888155806614</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0.00465042630977741</v>
+      </c>
+      <c r="P117" s="1">
+        <v>1.07445374393048</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0.389147286821705</v>
+      </c>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="T117" s="1">
+        <v>0.424598930481283</v>
+      </c>
+      <c r="U117" s="1">
+        <v>0.988267614738203</v>
+      </c>
+      <c r="V117" s="1">
+        <v>0.419251336898395</v>
+      </c>
+      <c r="W117" s="1">
+        <v>0.455813953488372</v>
+      </c>
+      <c r="X117" s="1">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="Y117" s="1">
+        <v>0.825581</v>
+      </c>
+      <c r="Z117" s="1">
+        <v>78.4</v>
+      </c>
+      <c r="AA117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="1" spans="1:27">
+      <c r="A118" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>3190</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1655</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1535</v>
+      </c>
+      <c r="G118" s="1">
+        <v>61</v>
+      </c>
+      <c r="H118" s="1">
+        <v>3465</v>
+      </c>
+      <c r="I118" s="1">
+        <v>677.507</v>
+      </c>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0.0424064228928568</v>
+      </c>
+      <c r="M118" s="1">
+        <v>4.11488416274764</v>
+      </c>
+      <c r="N118" s="1">
+        <v>177.300929348318</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
+        <v>1.50864328266629</v>
+      </c>
+      <c r="Q118" s="1">
+        <v>0.16986606571735</v>
+      </c>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1">
+        <v>1</v>
+      </c>
+      <c r="T118" s="1">
+        <v>0.16539184952978</v>
+      </c>
+      <c r="U118" s="1">
+        <v>0.782697377057278</v>
+      </c>
+      <c r="V118" s="1">
+        <v>0.1282131661442</v>
+      </c>
+      <c r="W118" s="1">
+        <v>0.247129909365558</v>
+      </c>
+      <c r="X118" s="1">
+        <v>0.0772638436482084</v>
+      </c>
+      <c r="Y118" s="1">
+        <v>0.812689</v>
+      </c>
+      <c r="Z118" s="1">
+        <v>409</v>
+      </c>
+      <c r="AA118" s="1">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="1" spans="1:27">
+      <c r="A119" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1</v>
+      </c>
+      <c r="D119" s="1">
+        <v>958</v>
+      </c>
+      <c r="E119" s="1">
+        <v>626</v>
+      </c>
+      <c r="F119" s="1">
+        <v>332</v>
+      </c>
+      <c r="G119" s="1">
+        <v>9</v>
+      </c>
+      <c r="H119" s="1">
+        <v>27</v>
+      </c>
+      <c r="I119" s="1">
+        <v>15.676</v>
+      </c>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L119" s="1">
+        <v>0.0403240920323743</v>
+      </c>
+      <c r="M119" s="1">
+        <v>4.75951056729699</v>
+      </c>
+      <c r="N119" s="1">
+        <v>41.4577365004107</v>
+      </c>
+      <c r="O119" s="4">
+        <v>1.80379196024205e-8</v>
+      </c>
+      <c r="P119" s="1">
+        <v>1.26956848731275</v>
+      </c>
+      <c r="Q119" s="1">
+        <v>0.178066900188613</v>
+      </c>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T119" s="1">
+        <v>0.239248434237995</v>
+      </c>
+      <c r="U119" s="1">
+        <v>0.829592769371382</v>
+      </c>
+      <c r="V119" s="1">
+        <v>0.196659707724425</v>
+      </c>
+      <c r="W119" s="1">
+        <v>0.300958466453674</v>
+      </c>
+      <c r="X119" s="1">
+        <v>0.12289156626506</v>
+      </c>
+      <c r="Y119" s="1">
+        <v>0.584665</v>
+      </c>
+      <c r="Z119" s="1">
+        <v>188.4</v>
+      </c>
+      <c r="AA119" s="1">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="1" spans="1:27">
+      <c r="A120" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1">
+        <v>5</v>
+      </c>
+      <c r="F120" s="1">
+        <v>5</v>
+      </c>
+      <c r="G120" s="1">
+        <v>32</v>
+      </c>
+      <c r="H120" s="1">
+        <v>77</v>
+      </c>
+      <c r="I120" s="1">
+        <v>3.496</v>
+      </c>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L120" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M120" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="N120" s="1">
+        <v>3.28571428571428</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0.153220552234688</v>
+      </c>
+      <c r="P120" s="1">
+        <v>1.82857142857142</v>
+      </c>
+      <c r="Q120" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="T120" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="U120" s="1">
+        <v>0.914285714285714</v>
+      </c>
+      <c r="V120" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="W120" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="X120" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="Y120" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA120" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="1" spans="1:27">
+      <c r="A121" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1">
+        <v>435</v>
+      </c>
+      <c r="E121" s="1">
+        <v>267</v>
+      </c>
+      <c r="F121" s="1">
+        <v>168</v>
+      </c>
+      <c r="G121" s="1">
+        <v>16</v>
+      </c>
+      <c r="H121" s="1">
+        <v>32</v>
+      </c>
+      <c r="I121" s="1">
+        <v>9.949</v>
+      </c>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L121" s="1">
+        <v>0.191638525564803</v>
+      </c>
+      <c r="M121" s="1">
+        <v>38.6962962962962</v>
+      </c>
+      <c r="N121" s="1">
+        <v>276.428702959948</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" s="1">
+        <v>1.5745614944668</v>
+      </c>
+      <c r="Q121" s="1">
+        <v>0.808426966292134</v>
+      </c>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="T121" s="1">
+        <v>0.546206896551724</v>
+      </c>
+      <c r="U121" s="1">
+        <v>0.966454986258932</v>
+      </c>
+      <c r="V121" s="1">
+        <v>0.526896551724138</v>
+      </c>
+      <c r="W121" s="1">
+        <v>0.858426966292134</v>
+      </c>
+      <c r="X121" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Y121" s="1">
+        <v>0.977528</v>
+      </c>
+      <c r="Z121" s="1">
+        <v>229.2</v>
+      </c>
+      <c r="AA121" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
+      <c r="A122" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1">
+        <v>226</v>
+      </c>
+      <c r="E122" s="1">
+        <v>57</v>
+      </c>
+      <c r="F122" s="1">
+        <v>169</v>
+      </c>
+      <c r="G122" s="1">
+        <v>69</v>
+      </c>
+      <c r="H122" s="1">
+        <v>154</v>
+      </c>
+      <c r="I122" s="1">
+        <v>87.908</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L122" s="1">
+        <v>0.168591902263293</v>
+      </c>
+      <c r="M122" s="1">
+        <v>4.67818181818181</v>
+      </c>
+      <c r="N122" s="1">
+        <v>164.365732455433</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" s="1">
+        <v>3.27312777935055</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>0.89390636354199</v>
+      </c>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1">
+        <v>4.4</v>
+      </c>
+      <c r="T122" s="1">
+        <v>0.29646017699115</v>
+      </c>
+      <c r="U122" s="1">
+        <v>0.825523377977796</v>
+      </c>
+      <c r="V122" s="1">
+        <v>0.243362831858407</v>
+      </c>
+      <c r="W122" s="1">
+        <v>0.964912280701754</v>
+      </c>
+      <c r="X122" s="1">
+        <v>0.0710059171597633</v>
+      </c>
+      <c r="Y122" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z122" s="1">
+        <v>55</v>
+      </c>
+      <c r="AA122" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
+      <c r="A123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1</v>
+      </c>
+      <c r="D123" s="1">
+        <v>286</v>
+      </c>
+      <c r="E123" s="1">
+        <v>201</v>
+      </c>
+      <c r="F123" s="1">
+        <v>85</v>
+      </c>
+      <c r="G123" s="1">
+        <v>9</v>
+      </c>
+      <c r="H123" s="1">
+        <v>41</v>
+      </c>
+      <c r="I123" s="1">
+        <v>38.632</v>
+      </c>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.0629297276150422</v>
+      </c>
+      <c r="M123" s="1">
+        <v>3.82062250285654</v>
+      </c>
+      <c r="N123" s="1">
+        <v>25.1259587979503</v>
+      </c>
+      <c r="O123" s="4">
+        <v>6.88533677584146e-7</v>
+      </c>
+      <c r="P123" s="1">
+        <v>1.1329938780819</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>0.301281826163301</v>
+      </c>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1">
+        <v>2</v>
+      </c>
+      <c r="T123" s="1">
+        <v>0.677622377622377</v>
+      </c>
+      <c r="U123" s="1">
+        <v>0.796264928302319</v>
+      </c>
+      <c r="V123" s="1">
+        <v>0.539160839160839</v>
+      </c>
+      <c r="W123" s="1">
+        <v>0.767164179104477</v>
+      </c>
+      <c r="X123" s="1">
+        <v>0.465882352941176</v>
+      </c>
+      <c r="Y123" s="1">
+        <v>0.860697</v>
+      </c>
+      <c r="Z123" s="1">
+        <v>154.2</v>
+      </c>
+      <c r="AA123" s="1">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
+      <c r="A124" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1">
+        <v>105</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44</v>
+      </c>
+      <c r="F124" s="1">
+        <v>61</v>
+      </c>
+      <c r="G124" s="1">
+        <v>12</v>
+      </c>
+      <c r="H124" s="1">
+        <v>191</v>
+      </c>
+      <c r="I124" s="1">
+        <v>48.155</v>
+      </c>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0.144707482993197</v>
+      </c>
+      <c r="M124" s="1">
+        <v>3.5938025210084</v>
+      </c>
+      <c r="N124" s="1">
+        <v>38.7727303936806</v>
+      </c>
+      <c r="O124" s="4">
+        <v>9.58188910438195e-9</v>
+      </c>
+      <c r="P124" s="1">
+        <v>1.85604760418833</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>0.594411326378539</v>
+      </c>
+      <c r="R124" s="1"/>
+      <c r="S124" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="T124" s="1">
+        <v>0.422857142857142</v>
+      </c>
+      <c r="U124" s="1">
+        <v>0.77777232937416</v>
+      </c>
+      <c r="V124" s="1">
+        <v>0.321904761904761</v>
+      </c>
+      <c r="W124" s="1">
+        <v>0.768181818181818</v>
+      </c>
+      <c r="X124" s="1">
+        <v>0.173770491803278</v>
+      </c>
+      <c r="Y124" s="1">
+        <v>0.977273</v>
+      </c>
+      <c r="Z124" s="1">
+        <v>33.8</v>
+      </c>
+      <c r="AA124" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
+      <c r="A125" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1">
+        <v>1728</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1210</v>
+      </c>
+      <c r="F125" s="1">
+        <v>518</v>
+      </c>
+      <c r="G125" s="1">
+        <v>6</v>
+      </c>
+      <c r="H125" s="1">
+        <v>21</v>
+      </c>
+      <c r="I125" s="1">
+        <v>25.569</v>
+      </c>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0.0586805555555555</v>
+      </c>
+      <c r="M125" s="1">
+        <v>233.081264157048</v>
+      </c>
+      <c r="N125" s="1">
+        <v>172.800367593094</v>
+      </c>
+      <c r="O125" s="4">
+        <v>4.03132462967192e-8</v>
+      </c>
+      <c r="P125" s="1">
+        <v>1.27041322314049</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>0.279554548645457</v>
+      </c>
+      <c r="R125" s="1"/>
+      <c r="S125" s="1">
+        <v>1</v>
+      </c>
+      <c r="T125" s="1">
+        <v>0.299999999999999</v>
+      </c>
+      <c r="U125" s="1">
+        <v>0.889583333333333</v>
+      </c>
+      <c r="V125" s="1">
+        <v>0.26875</v>
+      </c>
+      <c r="W125" s="1">
+        <v>0.383801652892561</v>
+      </c>
+      <c r="X125" s="1">
+        <v>0.104247104247104</v>
+      </c>
+      <c r="Y125" s="1">
+        <v>0.990083</v>
+      </c>
+      <c r="Z125" s="1">
+        <v>464.4</v>
+      </c>
+      <c r="AA125" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
+      <c r="A126" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1">
+        <v>3196</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1669</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1527</v>
+      </c>
+      <c r="G126" s="1">
+        <v>36</v>
+      </c>
+      <c r="H126" s="1">
+        <v>73</v>
+      </c>
+      <c r="I126" s="1">
+        <v>223.954</v>
+      </c>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0.124136788632849</v>
+      </c>
+      <c r="M126" s="1">
+        <v>3.29730504965099</v>
+      </c>
+      <c r="N126" s="1">
+        <v>815.402476179845</v>
+      </c>
+      <c r="O126" s="1">
+        <v>0</v>
+      </c>
+      <c r="P126" s="1">
+        <v>1.44016252290491</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>0.497529313577886</v>
+      </c>
+      <c r="R126" s="1"/>
+      <c r="S126" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="T126" s="1">
+        <v>0.552941176470588</v>
+      </c>
+      <c r="U126" s="1">
+        <v>0.752074859426879</v>
+      </c>
+      <c r="V126" s="1">
+        <v>0.412891113892365</v>
+      </c>
+      <c r="W126" s="1">
+        <v>0.790653085680048</v>
+      </c>
+      <c r="X126" s="1">
+        <v>0.293123772102161</v>
+      </c>
+      <c r="Y126" s="1">
+        <v>0.846016</v>
+      </c>
+      <c r="Z126" s="1">
+        <v>1319.6</v>
+      </c>
+      <c r="AA126" s="1">
+        <v>447.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
+      <c r="A127" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1">
+        <v>32</v>
+      </c>
+      <c r="E127" s="1">
+        <v>13</v>
+      </c>
+      <c r="F127" s="1">
+        <v>19</v>
+      </c>
+      <c r="G127" s="1">
+        <v>56</v>
+      </c>
+      <c r="H127" s="1">
+        <v>157</v>
+      </c>
+      <c r="I127" s="1">
+        <v>83.457</v>
+      </c>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0.100390625</v>
+      </c>
+      <c r="M127" s="1">
+        <v>2.43666666666666</v>
+      </c>
+      <c r="N127" s="1">
+        <v>6.67310244941689</v>
+      </c>
+      <c r="O127" s="1">
+        <v>0.0127879825625971</v>
+      </c>
+      <c r="P127" s="1">
+        <v>1.85105352164175</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>0.416194331983805</v>
+      </c>
+      <c r="R127" s="1"/>
+      <c r="S127" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="T127" s="1">
+        <v>0.3375</v>
+      </c>
+      <c r="U127" s="1">
+        <v>0.751990493166963</v>
+      </c>
+      <c r="V127" s="1">
+        <v>0.2375</v>
+      </c>
+      <c r="W127" s="1">
+        <v>0.584615384615384</v>
+      </c>
+      <c r="X127" s="1">
+        <v>0.168421052631578</v>
+      </c>
+      <c r="Y127" s="1">
+        <v>0.923077</v>
+      </c>
+      <c r="Z127" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="AA127" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
+      <c r="A128" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128" s="1">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1">
+        <v>106</v>
+      </c>
+      <c r="E128" s="1">
+        <v>53</v>
+      </c>
+      <c r="F128" s="1">
+        <v>53</v>
+      </c>
+      <c r="G128" s="1">
+        <v>58</v>
+      </c>
+      <c r="H128" s="1">
+        <v>334</v>
+      </c>
+      <c r="I128" s="1">
+        <v>155.42</v>
+      </c>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0.040566037735849</v>
+      </c>
+      <c r="M128" s="1">
+        <v>1.90811688311688</v>
+      </c>
+      <c r="N128" s="1">
+        <v>4.08411368430187</v>
+      </c>
+      <c r="O128" s="4">
+        <v>0.0528331757026057</v>
+      </c>
+      <c r="P128" s="1">
+        <v>1.36296843641671</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>0.162264150943396</v>
+      </c>
+      <c r="R128" s="1"/>
+      <c r="S128" s="1">
+        <v>1</v>
+      </c>
+      <c r="T128" s="1">
+        <v>0.228301886792452</v>
+      </c>
+      <c r="U128" s="1">
+        <v>0.681484218208356</v>
+      </c>
+      <c r="V128" s="1">
+        <v>0.154716981132075</v>
+      </c>
+      <c r="W128" s="1">
+        <v>0.30943396226415</v>
+      </c>
+      <c r="X128" s="1">
+        <v>0.147169811320754</v>
+      </c>
+      <c r="Y128" s="1">
+        <v>0.830189</v>
+      </c>
+      <c r="Z128" s="1">
+        <v>16.4</v>
+      </c>
+      <c r="AA128" s="1">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="129" s="1" customFormat="1" spans="1:27">
+      <c r="A129" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1">
+        <v>124</v>
+      </c>
+      <c r="E129" s="1">
+        <v>62</v>
+      </c>
+      <c r="F129" s="1">
+        <v>62</v>
+      </c>
+      <c r="G129" s="1">
+        <v>6</v>
+      </c>
+      <c r="H129" s="1">
+        <v>17</v>
+      </c>
+      <c r="I129" s="1">
+        <v>5.016</v>
+      </c>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0.0540322580645161</v>
+      </c>
+      <c r="M129" s="1">
+        <v>3.89666666666666</v>
+      </c>
+      <c r="N129" s="1">
+        <v>9.9070851514659</v>
+      </c>
+      <c r="O129" s="1">
+        <v>0.00394938715278165</v>
+      </c>
+      <c r="P129" s="1">
+        <v>1.60735564401199</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>0.216129032258064</v>
+      </c>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="T129" s="1">
+        <v>0.208064516129032</v>
+      </c>
+      <c r="U129" s="1">
+        <v>0.803677822005995</v>
+      </c>
+      <c r="V129" s="1">
+        <v>0.158064516129032</v>
+      </c>
+      <c r="W129" s="1">
+        <v>0.316129032258064</v>
+      </c>
+      <c r="X129" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Y129" s="1">
+        <v>0.66129</v>
+      </c>
+      <c r="Z129" s="1">
+        <v>19.6</v>
+      </c>
+      <c r="AA129" s="1">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1">
+        <v>8124</v>
+      </c>
+      <c r="E130" s="1">
+        <v>4208</v>
+      </c>
+      <c r="F130" s="1">
+        <v>3916</v>
+      </c>
+      <c r="G130" s="1">
+        <v>22</v>
+      </c>
+      <c r="H130" s="1">
+        <v>116</v>
+      </c>
+      <c r="I130" s="1">
+        <v>592.522</v>
+      </c>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0.174004845136717</v>
+      </c>
+      <c r="M130" s="1">
+        <v>36.9863681297922</v>
+      </c>
+      <c r="N130" s="1">
+        <v>4194.35391632047</v>
+      </c>
+      <c r="O130" s="1">
+        <v>0</v>
+      </c>
+      <c r="P130" s="1">
+        <v>1.87681647757962</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>0.696919724868629</v>
+      </c>
+      <c r="R130" s="1"/>
+      <c r="S130" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T130" s="1">
+        <v>0.383456425406203</v>
+      </c>
+      <c r="U130" s="1">
+        <v>0.972137338460742</v>
+      </c>
+      <c r="V130" s="1">
+        <v>0.372624322993599</v>
+      </c>
+      <c r="W130" s="1">
+        <v>0.719391634980988</v>
+      </c>
+      <c r="X130" s="1">
+        <v>0.0224719101123595</v>
+      </c>
+      <c r="Y130" s="1">
+        <v>0.809886</v>
+      </c>
+      <c r="Z130" s="1">
+        <v>3027.2</v>
+      </c>
+      <c r="AA130" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1">
+        <v>12960</v>
+      </c>
+      <c r="E131" s="1">
+        <v>4320</v>
+      </c>
+      <c r="F131" s="1">
+        <v>8640</v>
+      </c>
+      <c r="G131" s="1">
+        <v>8</v>
+      </c>
+      <c r="H131" s="1">
+        <v>27</v>
+      </c>
+      <c r="I131" s="1">
+        <v>163.903</v>
+      </c>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0.118518518518518</v>
+      </c>
+      <c r="M131" s="1">
+        <v>2304</v>
+      </c>
+      <c r="N131" s="1">
+        <v>5961.6</v>
+      </c>
+      <c r="O131" s="1">
+        <v>0</v>
+      </c>
+      <c r="P131" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="R131" s="1"/>
+      <c r="S131" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T131" s="1">
+        <v>0.177777777777777</v>
+      </c>
+      <c r="U131" s="1">
+        <v>1</v>
+      </c>
+      <c r="V131" s="1">
+        <v>0.177777777777777</v>
+      </c>
+      <c r="W131" s="1">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="X131" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="1">
+        <v>2304</v>
+      </c>
+      <c r="AA131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
+      <c r="A132" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>90</v>
+      </c>
+      <c r="E132" s="1">
+        <v>64</v>
+      </c>
+      <c r="F132" s="1">
+        <v>26</v>
+      </c>
+      <c r="G132" s="1">
+        <v>8</v>
+      </c>
+      <c r="H132" s="1">
+        <v>23</v>
+      </c>
+      <c r="I132" s="1">
+        <v>12.555</v>
+      </c>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L132" s="1">
+        <v>0.0274567901234567</v>
+      </c>
+      <c r="M132" s="1">
+        <v>6.12666666666666</v>
+      </c>
+      <c r="N132" s="1">
+        <v>2.91714799933416</v>
+      </c>
+      <c r="O132" s="1">
+        <v>0.0996367909052648</v>
+      </c>
+      <c r="P132" s="1">
+        <v>1.29639945652173</v>
+      </c>
+      <c r="Q132" s="1">
+        <v>0.133653846153846</v>
+      </c>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1">
+        <v>3</v>
+      </c>
+      <c r="T132" s="1">
+        <v>0.148888888888888</v>
+      </c>
+      <c r="U132" s="1">
+        <v>0.921884057971014</v>
+      </c>
+      <c r="V132" s="1">
+        <v>0.133333333333333</v>
+      </c>
+      <c r="W132" s="1">
+        <v>0.1875</v>
+      </c>
+      <c r="X132" s="1">
+        <v>0.0538461538461538</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>0.609375</v>
+      </c>
+      <c r="Z132" s="1">
+        <v>12</v>
+      </c>
+      <c r="AA132" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
+      <c r="A133" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>339</v>
+      </c>
+      <c r="E133" s="1">
+        <v>84</v>
+      </c>
+      <c r="F133" s="1">
+        <v>255</v>
+      </c>
+      <c r="G133" s="1">
+        <v>17</v>
+      </c>
+      <c r="H133" s="1">
+        <v>37</v>
+      </c>
+      <c r="I133" s="1">
+        <v>73.955</v>
+      </c>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L133" s="1">
+        <v>0.0851959171952906</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1.47154751035669</v>
+      </c>
+      <c r="N133" s="1">
+        <v>72.2261267032038</v>
+      </c>
+      <c r="O133" s="4">
+        <v>2.22044604925031e-17</v>
+      </c>
+      <c r="P133" s="1">
+        <v>2.42771625081628</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>0.457086834733893</v>
+      </c>
+      <c r="R133" s="1"/>
+      <c r="S133" s="1">
+        <v>2</v>
+      </c>
+      <c r="T133" s="1">
+        <v>0.241887905604719</v>
+      </c>
+      <c r="U133" s="1">
+        <v>0.601558009051823</v>
+      </c>
+      <c r="V133" s="1">
+        <v>0.145132743362831</v>
+      </c>
+      <c r="W133" s="1">
+        <v>0.585714285714285</v>
+      </c>
+      <c r="X133" s="1">
+        <v>0.128627450980392</v>
+      </c>
+      <c r="Y133" s="1">
+        <v>0.619048</v>
+      </c>
+      <c r="Z133" s="1">
+        <v>49.2</v>
+      </c>
+      <c r="AA133" s="1">
+        <v>32.8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
+      <c r="A134" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1">
+        <v>15</v>
+      </c>
+      <c r="E134" s="1">
+        <v>9</v>
+      </c>
+      <c r="F134" s="1">
+        <v>6</v>
+      </c>
+      <c r="G134" s="1">
+        <v>6</v>
+      </c>
+      <c r="H134" s="1">
+        <v>16</v>
+      </c>
+      <c r="I134" s="1">
+        <v>1.105</v>
+      </c>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L134" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="M134" s="1">
+        <v>2.56</v>
+      </c>
+      <c r="N134" s="1">
+        <v>2.51373626373626</v>
+      </c>
+      <c r="O134" s="1">
+        <v>0.121848927070489</v>
+      </c>
+      <c r="P134" s="1">
+        <v>1.48076923076923</v>
+      </c>
+      <c r="Q134" s="1">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1">
+        <v>2.2</v>
+      </c>
+      <c r="T134" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="U134" s="1">
+        <v>0.888461538461538</v>
+      </c>
+      <c r="V134" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="W134" s="1">
+        <v>0.533333333333333</v>
+      </c>
+      <c r="X134" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y134" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z134" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AA134" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
+      <c r="A135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>1066</v>
+      </c>
+      <c r="E135" s="1">
+        <v>331</v>
+      </c>
+      <c r="F135" s="1">
+        <v>735</v>
+      </c>
+      <c r="G135" s="1">
+        <v>12</v>
+      </c>
+      <c r="H135" s="1">
+        <v>42</v>
+      </c>
+      <c r="I135" s="1">
+        <v>24.84</v>
+      </c>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L135" s="1">
+        <v>0.214092238699844</v>
+      </c>
+      <c r="M135" s="1">
+        <v>331</v>
+      </c>
+      <c r="N135" s="1">
+        <v>1066</v>
+      </c>
+      <c r="O135" s="4">
+        <v>0</v>
+      </c>
+      <c r="P135" s="1">
+        <v>3.22054380664652</v>
+      </c>
+      <c r="Q135" s="1">
+        <v>1</v>
+      </c>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1">
+        <v>2</v>
+      </c>
+      <c r="T135" s="1">
+        <v>0.310506566604127</v>
+      </c>
+      <c r="U135" s="1">
+        <v>1</v>
+      </c>
+      <c r="V135" s="1">
+        <v>0.310506566604127</v>
+      </c>
+      <c r="W135" s="1">
+        <v>1</v>
+      </c>
+      <c r="X135" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z135" s="1">
+        <v>331</v>
+      </c>
+      <c r="AA135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
+      <c r="A136" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>683</v>
+      </c>
+      <c r="E136" s="1">
+        <v>92</v>
+      </c>
+      <c r="F136" s="1">
+        <v>591</v>
+      </c>
+      <c r="G136" s="1">
+        <v>35</v>
+      </c>
+      <c r="H136" s="1">
+        <v>99</v>
+      </c>
+      <c r="I136" s="1">
+        <v>127.41</v>
+      </c>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L136" s="1">
+        <v>0.0822930444233411</v>
+      </c>
+      <c r="M136" s="1">
+        <v>0.792089001506277</v>
+      </c>
+      <c r="N136" s="1">
+        <v>201.185686616719</v>
+      </c>
+      <c r="O136" s="1">
+        <v>0</v>
+      </c>
+      <c r="P136" s="1">
+        <v>3.21980755838026</v>
+      </c>
+      <c r="Q136" s="1">
+        <v>0.706039873464283</v>
+      </c>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="T136" s="1">
+        <v>0.293411420204978</v>
+      </c>
+      <c r="U136" s="1">
+        <v>0.43370760669251</v>
+      </c>
+      <c r="V136" s="1">
+        <v>0.121815519765739</v>
+      </c>
+      <c r="W136" s="1">
+        <v>0.904347826086956</v>
+      </c>
+      <c r="X136" s="1">
+        <v>0.198307952622673</v>
+      </c>
+      <c r="Y136" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z136" s="1">
+        <v>83.2</v>
+      </c>
+      <c r="AA136" s="1">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
+      <c r="A137" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="1">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1">
+        <v>187</v>
+      </c>
+      <c r="E137" s="1">
+        <v>172</v>
+      </c>
+      <c r="F137" s="1">
+        <v>15</v>
+      </c>
+      <c r="G137" s="1">
+        <v>22</v>
+      </c>
+      <c r="H137" s="1">
+        <v>44</v>
+      </c>
+      <c r="I137" s="1">
+        <v>62.953</v>
+      </c>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L137" s="1">
+        <v>0.0291400955131688</v>
+      </c>
+      <c r="M137" s="1">
+        <v>42.6</v>
+      </c>
+      <c r="N137" s="1">
+        <v>9.03197595714656</v>
+      </c>
+      <c r="O137" s="1">
+        <v>0.00359113550371685</v>
+      </c>
+      <c r="P137" s="1">
+        <v>1.07467276272628</v>
+      </c>
+      <c r="Q137" s="1">
+        <v>0.394961240310077</v>
+      </c>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T137" s="1">
+        <v>0.429946524064171</v>
+      </c>
+      <c r="U137" s="1">
+        <v>0.988469065181394</v>
+      </c>
+      <c r="V137" s="1">
+        <v>0.424598930481283</v>
+      </c>
+      <c r="W137" s="1">
+        <v>0.461627906976744</v>
+      </c>
+      <c r="X137" s="1">
+        <v>0.0666666666666666</v>
+      </c>
+      <c r="Y137" s="1">
+        <v>0.738372</v>
+      </c>
+      <c r="Z137" s="1">
+        <v>79.4</v>
+      </c>
+      <c r="AA137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
+      <c r="A138" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3190</v>
+      </c>
+      <c r="E138" s="1">
+        <v>1655</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1535</v>
+      </c>
+      <c r="G138" s="1">
+        <v>61</v>
+      </c>
+      <c r="H138" s="1">
+        <v>3465</v>
+      </c>
+      <c r="I138" s="1">
+        <v>1232.64</v>
+      </c>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L138" s="1">
+        <v>0.0424064228928568</v>
+      </c>
+      <c r="M138" s="1">
+        <v>4.11488416274764</v>
+      </c>
+      <c r="N138" s="1">
+        <v>177.300929348318</v>
+      </c>
+      <c r="O138" s="1">
+        <v>0</v>
+      </c>
+      <c r="P138" s="1">
+        <v>1.50864328266629</v>
+      </c>
+      <c r="Q138" s="1">
+        <v>0.16986606571735</v>
+      </c>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1">
+        <v>1</v>
+      </c>
+      <c r="T138" s="1">
+        <v>0.16539184952978</v>
+      </c>
+      <c r="U138" s="1">
+        <v>0.782697377057278</v>
+      </c>
+      <c r="V138" s="1">
+        <v>0.1282131661442</v>
+      </c>
+      <c r="W138" s="1">
+        <v>0.247129909365558</v>
+      </c>
+      <c r="X138" s="1">
+        <v>0.0772638436482084</v>
+      </c>
+      <c r="Y138" s="1">
+        <v>0.812689</v>
+      </c>
+      <c r="Z138" s="1">
+        <v>409</v>
+      </c>
+      <c r="AA138" s="1">
+        <v>118.6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
+      <c r="A139" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1">
+        <v>958</v>
+      </c>
+      <c r="E139" s="1">
+        <v>626</v>
+      </c>
+      <c r="F139" s="1">
+        <v>332</v>
+      </c>
+      <c r="G139" s="1">
+        <v>9</v>
+      </c>
+      <c r="H139" s="1">
+        <v>27</v>
+      </c>
+      <c r="I139" s="1">
+        <v>63.219</v>
+      </c>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L139" s="1">
+        <v>0.0403240920323743</v>
+      </c>
+      <c r="M139" s="1">
+        <v>4.75951056729699</v>
+      </c>
+      <c r="N139" s="1">
+        <v>41.4577365004107</v>
+      </c>
+      <c r="O139" s="4">
+        <v>1.80379196024205e-8</v>
+      </c>
+      <c r="P139" s="1">
+        <v>1.26956848731275</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>0.178066900188613</v>
+      </c>
+      <c r="R139" s="1"/>
+      <c r="S139" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="T139" s="1">
+        <v>0.239248434237995</v>
+      </c>
+      <c r="U139" s="1">
+        <v>0.829592769371382</v>
+      </c>
+      <c r="V139" s="1">
+        <v>0.196659707724425</v>
+      </c>
+      <c r="W139" s="1">
+        <v>0.300958466453674</v>
+      </c>
+      <c r="X139" s="1">
+        <v>0.12289156626506</v>
+      </c>
+      <c r="Y139" s="1">
+        <v>0.584665</v>
+      </c>
+      <c r="Z139" s="1">
+        <v>188.4</v>
+      </c>
+      <c r="AA139" s="1">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
+      <c r="A140" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C140" s="1">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1">
+        <v>10</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <v>5</v>
+      </c>
+      <c r="G140" s="1">
+        <v>32</v>
+      </c>
+      <c r="H140" s="1">
+        <v>77</v>
+      </c>
+      <c r="I140" s="1">
+        <v>45.586</v>
+      </c>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L140" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="M140" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N140" s="1">
+        <v>2.88888888888888</v>
+      </c>
+      <c r="O140" s="1">
+        <v>0.145212403624714</v>
+      </c>
+      <c r="P140" s="1">
+        <v>1.72222222222222</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="R140" s="1"/>
+      <c r="S140" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="T140" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="U140" s="1">
+        <v>0.861111111111111</v>
+      </c>
+      <c r="V140" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="W140" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="X140" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y140" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z140" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="AA140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
+      <c r="A141" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="1">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1">
+        <v>435</v>
+      </c>
+      <c r="E141" s="1">
+        <v>267</v>
+      </c>
+      <c r="F141" s="1">
+        <v>168</v>
+      </c>
+      <c r="G141" s="1">
+        <v>16</v>
+      </c>
+      <c r="H141" s="1">
+        <v>32</v>
+      </c>
+      <c r="I141" s="1">
+        <v>58.945</v>
+      </c>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1">
+        <v>179424673</v>
+      </c>
+      <c r="L141" s="1">
+        <v>0.176120491478398</v>
+      </c>
+      <c r="M141" s="1">
+        <v>18.9607407407407</v>
+      </c>
+      <c r="N141" s="1">
+        <v>236.65350956245</v>
+      </c>
+      <c r="O141" s="1">
+        <v>0</v>
+      </c>
+      <c r="P141" s="1">
+        <v>1.52229923641828</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>0.742964151952916</v>
+      </c>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="T141" s="1">
+        <v>0.551264367816091</v>
+      </c>
+      <c r="U141" s="1">
+        <v>0.934376772698119</v>
+      </c>
+      <c r="V141" s="1">
+        <v>0.514482758620689</v>
+      </c>
+      <c r="W141" s="1">
+        <v>0.838202247191011</v>
+      </c>
+      <c r="X141" s="1">
+        <v>0.0952380952380952</v>
+      </c>
+      <c r="Y141" s="1">
+        <v>0.992509</v>
+      </c>
+      <c r="Z141" s="1">
+        <v>223.8</v>
+      </c>
+      <c r="AA141" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
+      <c r="A144" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" t="s">
+        <v>55</v>
+      </c>
+      <c r="I144">
+        <f t="shared" ref="I144:Q144" si="0">AVERAGE(I2:I21)</f>
+        <v>-1</v>
+      </c>
+      <c r="L144">
         <f t="shared" si="0"/>
         <v>0.02029506735</v>
       </c>
-      <c r="M104" s="3">
+      <c r="M144">
         <f t="shared" si="0"/>
         <v>126.13759238265</v>
       </c>
-      <c r="N104" s="3">
+      <c r="N144">
         <f t="shared" si="0"/>
         <v>643.0933796104</v>
       </c>
-      <c r="O104" s="3">
+      <c r="O144">
         <f t="shared" si="0"/>
         <v>0.136516393552</v>
       </c>
-      <c r="P104" s="3">
+      <c r="P144">
         <f t="shared" si="0"/>
         <v>1.4881467155</v>
       </c>
-      <c r="Q104" s="3">
+      <c r="Q144">
         <f t="shared" si="0"/>
         <v>0.11275469415</v>
       </c>
-      <c r="S104" s="3">
-        <f t="shared" ref="S104:AA104" si="1">AVERAGE(S2:S21)</f>
+      <c r="S144">
+        <f t="shared" ref="S144:AA144" si="1">AVERAGE(S2:S21)</f>
         <v>15.066666667</v>
       </c>
-      <c r="T104" s="3">
+      <c r="T144">
         <f t="shared" si="1"/>
         <v>0.1748901804</v>
       </c>
-      <c r="U104" s="3">
+      <c r="U144">
         <f t="shared" si="1"/>
         <v>0.3868126313</v>
       </c>
-      <c r="V104" s="3">
+      <c r="V144">
         <f t="shared" si="1"/>
         <v>0.1139903874</v>
       </c>
-      <c r="W104" s="3">
+      <c r="W144">
         <f t="shared" si="1"/>
         <v>0.2220737225</v>
       </c>
-      <c r="X104" s="3">
+      <c r="X144">
         <f t="shared" si="1"/>
         <v>0.1386901316</v>
       </c>
-      <c r="Y104" s="3">
+      <c r="Y144">
         <f t="shared" si="1"/>
         <v>0.3761031337</v>
       </c>
-      <c r="Z104" s="3">
+      <c r="Z144">
         <f t="shared" si="1"/>
         <v>194.9000000035</v>
       </c>
-      <c r="AA104" s="3">
+      <c r="AA144">
         <f t="shared" si="1"/>
         <v>101.70000000165</v>
       </c>
     </row>
-    <row r="105" spans="1:27">
-      <c r="A105" t="s">
+    <row r="145" spans="1:27">
+      <c r="A145" t="s">
         <v>49</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I105" s="3">
-        <f t="shared" ref="I105:Q105" si="2">AVERAGE(I22:I41)</f>
-        <v>-1</v>
-      </c>
-      <c r="L105" s="3">
+      <c r="B145" t="s">
+        <v>55</v>
+      </c>
+      <c r="I145">
+        <f t="shared" ref="I145:Q145" si="2">AVERAGE(I22:I41)</f>
+        <v>-1</v>
+      </c>
+      <c r="L145">
         <f t="shared" si="2"/>
         <v>0.1037955255</v>
       </c>
-      <c r="M105" s="3">
+      <c r="M145">
         <f t="shared" si="2"/>
         <v>266.90923920465</v>
       </c>
-      <c r="N105" s="3">
+      <c r="N145">
         <f t="shared" si="2"/>
         <v>1093.83545720189</v>
       </c>
-      <c r="O105" s="3">
+      <c r="O145">
         <f t="shared" si="2"/>
         <v>0.0414376710353167</v>
       </c>
-      <c r="P105" s="3">
+      <c r="P145">
         <f t="shared" si="2"/>
         <v>1.65657754725</v>
       </c>
-      <c r="Q105" s="3">
+      <c r="Q145">
         <f t="shared" si="2"/>
         <v>0.46086069385</v>
       </c>
-      <c r="S105" s="3">
-        <f t="shared" ref="S105:AA105" si="3">AVERAGE(S22:S41)</f>
+      <c r="S145">
+        <f t="shared" ref="S145:AA145" si="3">AVERAGE(S22:S41)</f>
         <v>3.0277664727</v>
       </c>
-      <c r="T105" s="3">
+      <c r="T145">
         <f t="shared" si="3"/>
         <v>0.52458638245</v>
       </c>
-      <c r="U105" s="3">
+      <c r="U145">
         <f t="shared" si="3"/>
         <v>0.77119669125</v>
       </c>
-      <c r="V105" s="3">
+      <c r="V145">
         <f t="shared" si="3"/>
         <v>0.36528385935</v>
       </c>
-      <c r="W105" s="3">
+      <c r="W145">
         <f t="shared" si="3"/>
         <v>0.76611415795</v>
       </c>
-      <c r="X105" s="3">
+      <c r="X145">
         <f t="shared" si="3"/>
         <v>0.3139411718</v>
       </c>
-      <c r="Y105" s="3">
+      <c r="Y145">
         <f t="shared" si="3"/>
         <v>0.89113982245</v>
       </c>
-      <c r="Z105" s="3">
+      <c r="Z145">
         <f t="shared" si="3"/>
         <v>600.11484219415</v>
       </c>
-      <c r="AA105" s="3">
+      <c r="AA145">
         <f t="shared" si="3"/>
         <v>136.2263510518</v>
       </c>
     </row>
-    <row r="106" spans="1:27">
-      <c r="A106" t="s">
+    <row r="146" spans="1:27">
+      <c r="A146" t="s">
         <v>50</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I106" s="3">
-        <f t="shared" ref="I106:Y106" si="4">AVERAGE(I42:I61)</f>
-        <v>-1</v>
-      </c>
-      <c r="L106" s="3">
+      <c r="B146" t="s">
+        <v>55</v>
+      </c>
+      <c r="I146">
+        <f t="shared" ref="I146:AA146" si="4">AVERAGE(I42:I61)</f>
+        <v>-1</v>
+      </c>
+      <c r="L146">
         <f t="shared" si="4"/>
         <v>0.0473249668</v>
       </c>
-      <c r="M106" s="3">
+      <c r="M146">
         <f t="shared" si="4"/>
         <v>253.10309940495</v>
       </c>
-      <c r="N106" s="3">
+      <c r="N146">
         <f t="shared" si="4"/>
         <v>890.493469140421</v>
       </c>
-      <c r="O106" s="3">
+      <c r="O146">
         <f t="shared" si="4"/>
         <v>0.188546578526347</v>
       </c>
-      <c r="P106" s="3">
+      <c r="P146">
         <f t="shared" si="4"/>
         <v>1.40620692285</v>
       </c>
-      <c r="Q106" s="3">
+      <c r="Q146">
         <f t="shared" si="4"/>
         <v>0.2246012436</v>
       </c>
-      <c r="R106" s="3"/>
-      <c r="S106" s="3">
+      <c r="S146">
         <f t="shared" si="4"/>
         <v>1.2796717172</v>
       </c>
-      <c r="T106" s="3">
+      <c r="T146">
         <f t="shared" si="4"/>
         <v>0.55970885075</v>
       </c>
-      <c r="U106" s="3">
+      <c r="U146">
         <f t="shared" si="4"/>
         <v>0.67408391425</v>
       </c>
-      <c r="V106" s="3">
+      <c r="V146">
         <f t="shared" si="4"/>
         <v>0.3199748114</v>
       </c>
-      <c r="W106" s="3">
+      <c r="W146">
         <f t="shared" si="4"/>
         <v>0.67633239585</v>
       </c>
-      <c r="X106" s="3">
+      <c r="X146">
         <f t="shared" si="4"/>
         <v>0.47141144775</v>
       </c>
-      <c r="Y106" s="3">
+      <c r="Y146">
         <f t="shared" si="4"/>
         <v>0.86663567575</v>
       </c>
-      <c r="Z106" s="3">
-        <f>AVERAGE(Z42:Z61)</f>
+      <c r="Z146">
+        <f t="shared" si="4"/>
         <v>514.64810603835</v>
       </c>
-      <c r="AA106" s="3">
-        <f>AVERAGE(AA42:AA61)</f>
+      <c r="AA146">
+        <f t="shared" si="4"/>
         <v>167.7801767679</v>
       </c>
     </row>
-    <row r="107" spans="1:27">
-      <c r="A107" s="4" t="s">
+    <row r="147" spans="1:27">
+      <c r="A147" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B107" t="s">
-        <v>53</v>
-      </c>
-      <c r="I107">
-        <f t="shared" ref="I107:R107" si="5">AVERAGE(I62:I81)</f>
+      <c r="B147" t="s">
+        <v>55</v>
+      </c>
+      <c r="I147">
+        <f t="shared" ref="I147:R147" si="5">AVERAGE(I62:I81)</f>
         <v>0.1763</v>
       </c>
-      <c r="L107">
+      <c r="L147">
         <f t="shared" si="5"/>
         <v>0.0945312991</v>
       </c>
-      <c r="M107">
+      <c r="M147">
         <f t="shared" si="5"/>
         <v>69.2267849379</v>
       </c>
-      <c r="N107">
+      <c r="N147">
         <f t="shared" si="5"/>
         <v>510.06593590675</v>
       </c>
-      <c r="O107">
+      <c r="O147">
         <f t="shared" si="5"/>
         <v>0.0605419291795001</v>
       </c>
-      <c r="P107">
+      <c r="P147">
         <f t="shared" si="5"/>
         <v>1.83965927195</v>
       </c>
-      <c r="Q107">
+      <c r="Q147">
         <f t="shared" si="5"/>
         <v>0.44551909795</v>
       </c>
-      <c r="S107">
-        <f t="shared" ref="S107:AA107" si="6">AVERAGE(S62:S81)</f>
+      <c r="S147">
+        <f t="shared" ref="S147:AA147" si="6">AVERAGE(S62:S81)</f>
         <v>2.25</v>
       </c>
-      <c r="T107">
+      <c r="T147">
         <f t="shared" si="6"/>
         <v>0.34063731995</v>
       </c>
-      <c r="U107">
+      <c r="U147">
         <f t="shared" si="6"/>
         <v>0.8190078708</v>
       </c>
-      <c r="V107">
+      <c r="V147">
         <f t="shared" si="6"/>
         <v>0.2741068022</v>
       </c>
-      <c r="W107">
+      <c r="W147">
         <f t="shared" si="6"/>
         <v>0.58049347195</v>
       </c>
-      <c r="X107">
+      <c r="X147">
         <f t="shared" si="6"/>
         <v>0.13497437395</v>
       </c>
-      <c r="Y107">
+      <c r="Y147">
         <f t="shared" si="6"/>
         <v>0.85928586715</v>
       </c>
-      <c r="Z107">
+      <c r="Z147">
         <f t="shared" si="6"/>
         <v>421.59</v>
       </c>
-      <c r="AA107">
+      <c r="AA147">
         <f t="shared" si="6"/>
         <v>146.48</v>
       </c>
     </row>
-    <row r="108" spans="1:27">
-      <c r="A108" s="4" t="s">
+    <row r="148" spans="1:27">
+      <c r="A148" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-      <c r="I108">
-        <f t="shared" ref="I108:AA108" si="7">AVERAGE(I82:I101)</f>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+      <c r="I148">
+        <f t="shared" ref="I148:AA148" si="7">AVERAGE(I82:I101)</f>
         <v>2.51825</v>
       </c>
-      <c r="L108">
+      <c r="L148">
         <f t="shared" si="7"/>
         <v>0.0864909999954661</v>
       </c>
-      <c r="M108">
+      <c r="M148">
         <f t="shared" si="7"/>
         <v>143.050487046103</v>
       </c>
-      <c r="N108">
+      <c r="N148">
         <f t="shared" si="7"/>
         <v>522.452472959246</v>
       </c>
-      <c r="O108">
+      <c r="O148">
         <f t="shared" si="7"/>
         <v>0.0300234352788135</v>
       </c>
-      <c r="P108">
+      <c r="P148">
         <f t="shared" si="7"/>
         <v>1.79373037811723</v>
       </c>
-      <c r="Q108">
+      <c r="Q148">
         <f t="shared" si="7"/>
         <v>0.407372587513867</v>
       </c>
-      <c r="S108">
+      <c r="S148">
         <f t="shared" si="7"/>
         <v>2.34</v>
       </c>
-      <c r="T108">
+      <c r="T148">
         <f t="shared" si="7"/>
         <v>0.334669025631536</v>
       </c>
-      <c r="U108">
+      <c r="U148">
         <f t="shared" si="7"/>
         <v>0.809415601348155</v>
       </c>
-      <c r="V108">
+      <c r="V148">
         <f t="shared" si="7"/>
         <v>0.260737140898347</v>
       </c>
-      <c r="W108">
+      <c r="W148">
         <f t="shared" si="7"/>
         <v>0.554409686028763</v>
       </c>
-      <c r="X108">
+      <c r="X148">
         <f t="shared" si="7"/>
         <v>0.147037098514895</v>
       </c>
-      <c r="Y108">
+      <c r="Y148">
         <f t="shared" si="7"/>
         <v>0.88461825</v>
       </c>
-      <c r="Z108">
+      <c r="Z148">
         <f t="shared" si="7"/>
         <v>404.59</v>
       </c>
-      <c r="AA108">
-        <f t="shared" si="7"/>
+      <c r="AA148">
+        <f>AVERAGE(AA82:AA101)</f>
         <v>68.92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
+      <c r="A149" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1">
+        <f t="shared" ref="I149:Q149" si="8">AVERAGE(I102:I121)</f>
+        <v>65.68315</v>
+      </c>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1">
+        <f>AVERAGE(L102:L121)</f>
+        <v>0.0907794475779694</v>
+      </c>
+      <c r="M149" s="1">
+        <f t="shared" si="8"/>
+        <v>144.434215176907</v>
+      </c>
+      <c r="N149" s="1">
+        <f t="shared" si="8"/>
+        <v>562.499795776005</v>
+      </c>
+      <c r="O149" s="1">
+        <f t="shared" si="8"/>
+        <v>0.0278622069891572</v>
+      </c>
+      <c r="P149" s="1">
+        <f t="shared" si="8"/>
+        <v>1.8605806531654</v>
+      </c>
+      <c r="Q149" s="1">
+        <f t="shared" si="8"/>
+        <v>0.429179725515843</v>
+      </c>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1">
+        <f t="shared" ref="S149:AA149" si="9">AVERAGE(S102:S121)</f>
+        <v>2.1</v>
+      </c>
+      <c r="T149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.326962180775558</v>
+      </c>
+      <c r="U149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.825855448234933</v>
+      </c>
+      <c r="V149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.263455788397676</v>
+      </c>
+      <c r="W149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.560460981431065</v>
+      </c>
+      <c r="X149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.131281255915221</v>
+      </c>
+      <c r="Y149" s="1">
+        <f t="shared" si="9"/>
+        <v>0.87175505</v>
+      </c>
+      <c r="Z149" s="1">
+        <f t="shared" si="9"/>
+        <v>396.9</v>
+      </c>
+      <c r="AA149" s="1">
+        <f t="shared" si="9"/>
+        <v>44.85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
+      <c r="A150" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1">
+        <f t="shared" ref="I150:Q150" si="10">AVERAGE(I122:I141)</f>
+        <v>156.3872</v>
+      </c>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1">
+        <f t="shared" si="10"/>
+        <v>0.0966793916937134</v>
+      </c>
+      <c r="M150" s="1">
+        <f t="shared" si="10"/>
+        <v>150.609221652215</v>
+      </c>
+      <c r="N150" s="1">
+        <f t="shared" si="10"/>
+        <v>660.263061043293</v>
+      </c>
+      <c r="O150" s="1">
+        <f t="shared" si="10"/>
+        <v>0.0219930279494451</v>
+      </c>
+      <c r="P150" s="1">
+        <f t="shared" si="10"/>
+        <v>1.8706790690898</v>
+      </c>
+      <c r="Q150" s="1">
+        <f t="shared" si="10"/>
+        <v>0.457374809877436</v>
+      </c>
+      <c r="R150" s="1"/>
+      <c r="S150" s="1">
+        <f t="shared" ref="S150:AA150" si="11">AVERAGE(S122:S141)</f>
+        <v>2.37</v>
+      </c>
+      <c r="T150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.339276371849874</v>
+      </c>
+      <c r="U150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.824618350392636</v>
+      </c>
+      <c r="V150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.275074793544274</v>
+      </c>
+      <c r="W150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.591821516956707</v>
+      </c>
+      <c r="X150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.134446707079271</v>
+      </c>
+      <c r="Y150" s="1">
+        <f t="shared" si="11"/>
+        <v>0.86275845</v>
+      </c>
+      <c r="Z150" s="1">
+        <f t="shared" si="11"/>
+        <v>439.29</v>
+      </c>
+      <c r="AA150" s="1">
+        <f t="shared" si="11"/>
+        <v>49.95</v>
       </c>
     </row>
   </sheetData>
